--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_25_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_25_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>245167.2580288288</v>
+        <v>327140.5414585511</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14785957.46876066</v>
+        <v>14758048.28460539</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6282241.00816709</v>
+        <v>6288032.18365525</v>
       </c>
     </row>
     <row r="11">
@@ -658,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.848256208035304</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>49.79500702712463</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="W2" t="n">
-        <v>1.848256208035306</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>43.85944218949135</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>43.85944218949135</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="T3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>49.79500702712463</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37.57007701068535</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.848256208035249</v>
       </c>
       <c r="U5" t="n">
-        <v>73.46440173672741</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="V5" t="n">
-        <v>73.46440173672741</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>73.46440173672741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>73.46440173672741</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="G6" t="n">
-        <v>64.70744504970948</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>73.46440173672741</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>43.85944218949141</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>73.46440173672741</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>98.74883103803278</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>57.96571614961795</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.1126601249237</v>
+        <v>92.6649492891022</v>
       </c>
     </row>
     <row r="9">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.256558775821418</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="U9" t="n">
-        <v>112.1126601249237</v>
+        <v>67.27654854321852</v>
       </c>
       <c r="V9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>89.49227226221136</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>88.09081815943067</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="V11" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1454,16 +1454,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>141.4261508958551</v>
       </c>
     </row>
     <row r="13">
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>52.21594625443443</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>88.09081815943109</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="D14" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V14" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,19 +1685,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>64.80091967163371</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X15" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>52.2159462544348</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>35.67417635386619</v>
+        <v>380.175575964398</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>10.96483807134828</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>146.9382674488656</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.1698774804723</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1277025328068</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>337.6361713017724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1928,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.8070798189336</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.39669409571539</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>50.28561341314794</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>143.1445213099197</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>193.97180799574</v>
       </c>
       <c r="U18" t="n">
-        <v>225.845482630877</v>
+        <v>172.4988278328121</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>50.38210490410928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>120.5291717239837</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>211.7839247910102</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>72.71941459120916</v>
       </c>
       <c r="C20" t="n">
-        <v>337.6361713017724</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>192.5099187568489</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>337.6361713017724</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>99.76882660971511</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>44.45022224585207</v>
+        <v>35.20287667141781</v>
       </c>
       <c r="S20" t="n">
-        <v>146.9382674488656</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.5254541783477</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1277025328068</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>380.175575964398</v>
       </c>
     </row>
     <row r="21">
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.8858455217234</v>
+        <v>135.8070798189336</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>97.39669409571539</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>50.28561341314794</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>143.1445213099197</v>
       </c>
       <c r="T21" t="n">
-        <v>194.2892890521601</v>
+        <v>193.97180799574</v>
       </c>
       <c r="U21" t="n">
-        <v>225.845482630877</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>68.52143144165318</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>77.13701343099774</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>98.70339864828708</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>211.7839247910102</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>28.31125026083883</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>52.59549716500564</v>
       </c>
     </row>
     <row r="24">
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>144.4151328615955</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>133.6980886148231</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>36.2994675790488</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2453,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2350578157167</v>
+        <v>156.2886548806418</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>185.9158911817653</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,13 +2560,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>127.6662480032802</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>411.8707348436268</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>78.1636065770829</v>
+        <v>12.27932720724424</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,22 +2633,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>95.87413436878293</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.8205739680685</v>
@@ -2699,7 +2699,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>9.791369726466238</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>178.1144279563383</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>73.73431546344993</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>304.326804756183</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>165.9891204513478</v>
+        <v>163.5711165961235</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2870,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>66.91596461221454</v>
+        <v>45.43398310925643</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>36.2994675790488</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.8205739680685</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>84.33162915224757</v>
       </c>
       <c r="V31" t="n">
-        <v>180.2959383279816</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>45.51711854167087</v>
+        <v>217.9335812216252</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3107,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>100.714276942686</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>135.5072338470352</v>
+        <v>106.0588020198915</v>
       </c>
       <c r="H33" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>36.2994675790488</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>31.66886087721423</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3173,10 +3173,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>156.2886548806418</v>
       </c>
       <c r="U34" t="n">
-        <v>246.4412936084448</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>205.1742705668273</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>42.03533895523579</v>
       </c>
       <c r="H35" t="n">
         <v>304.326804756183</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,7 +3347,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3356,10 +3356,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>95.75073652256964</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>125.1535948248801</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>192.7632183107638</v>
@@ -3404,16 +3404,16 @@
         <v>225.8205739680685</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>39.19398801432182</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>274.9632582378662</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>313.2059141323274</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,7 +3520,7 @@
         <v>411.8707348436268</v>
       </c>
       <c r="H38" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V38" t="n">
-        <v>109.0318497353894</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,22 +3587,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>70.94066416452853</v>
       </c>
       <c r="I39" t="n">
-        <v>36.2994675790488</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>31.66886087721423</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>40.46632673488332</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U39" t="n">
         <v>225.8205739680685</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U40" t="n">
-        <v>185.627950660891</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>250.7831302631793</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>411.8707348436268</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>56.07315517757612</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>295.0198286400321</v>
       </c>
     </row>
     <row r="42">
@@ -3827,13 +3827,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>130.2280544827297</v>
       </c>
       <c r="G42" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U42" t="n">
-        <v>90.45244187497795</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>107.7164371392383</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>177.1015133327004</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I44" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.86824315830573</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>94.84145300486935</v>
       </c>
     </row>
     <row r="45">
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>78.3105029505457</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4073,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I45" t="n">
-        <v>36.2994675790488</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>20.10915726773942</v>
       </c>
       <c r="U45" t="n">
         <v>225.8205739680685</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>40.20690263795975</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>220.013305673654</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54.28158745825545</v>
+        <v>5.850526024831893</v>
       </c>
       <c r="C2" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="D2" t="n">
         <v>3.98360056216997</v>
@@ -4363,19 +4363,19 @@
         <v>156.7444867130883</v>
       </c>
       <c r="U2" t="n">
-        <v>156.7444867130883</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="V2" t="n">
-        <v>106.4464998170029</v>
+        <v>56.14851292091738</v>
       </c>
       <c r="W2" t="n">
-        <v>104.5795743543409</v>
+        <v>56.14851292091738</v>
       </c>
       <c r="X2" t="n">
-        <v>104.5795743543409</v>
+        <v>56.14851292091738</v>
       </c>
       <c r="Y2" t="n">
-        <v>54.28158745825545</v>
+        <v>56.14851292091738</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.98360056216997</v>
+        <v>48.28606742024204</v>
       </c>
       <c r="C3" t="n">
-        <v>3.98360056216997</v>
+        <v>48.28606742024204</v>
       </c>
       <c r="D3" t="n">
         <v>3.98360056216997</v>
@@ -4415,16 +4415,16 @@
         <v>3.98360056216997</v>
       </c>
       <c r="L3" t="n">
-        <v>22.54896088111074</v>
+        <v>50.30614171732423</v>
       </c>
       <c r="M3" t="n">
-        <v>71.84601783796413</v>
+        <v>99.60319867417761</v>
       </c>
       <c r="N3" t="n">
-        <v>121.1430747948175</v>
+        <v>148.900255631031</v>
       </c>
       <c r="O3" t="n">
-        <v>170.4401317516709</v>
+        <v>198.1973125878844</v>
       </c>
       <c r="P3" t="n">
         <v>199.1800281084985</v>
@@ -4436,25 +4436,25 @@
         <v>199.1800281084985</v>
       </c>
       <c r="S3" t="n">
-        <v>154.8775612504264</v>
+        <v>148.882041212413</v>
       </c>
       <c r="T3" t="n">
-        <v>104.5795743543409</v>
+        <v>148.882041212413</v>
       </c>
       <c r="U3" t="n">
-        <v>54.28158745825545</v>
+        <v>98.58405431632752</v>
       </c>
       <c r="V3" t="n">
-        <v>3.98360056216997</v>
+        <v>98.58405431632752</v>
       </c>
       <c r="W3" t="n">
-        <v>3.98360056216997</v>
+        <v>98.58405431632752</v>
       </c>
       <c r="X3" t="n">
-        <v>3.98360056216997</v>
+        <v>48.28606742024204</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.98360056216997</v>
+        <v>48.28606742024204</v>
       </c>
     </row>
     <row r="4">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="C5" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="D5" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="E5" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="F5" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G5" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H5" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I5" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J5" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K5" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L5" t="n">
-        <v>42.77891399687743</v>
+        <v>19.82590800208273</v>
       </c>
       <c r="M5" t="n">
-        <v>115.5086717162376</v>
+        <v>69.12296495893617</v>
       </c>
       <c r="N5" t="n">
-        <v>188.2384294355977</v>
+        <v>118.4200219157896</v>
       </c>
       <c r="O5" t="n">
-        <v>249.0477644106464</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="P5" t="n">
-        <v>266.4461240792085</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.4461240792085</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="R5" t="n">
-        <v>266.4461240792085</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="S5" t="n">
-        <v>266.4461240792085</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="T5" t="n">
-        <v>266.4461240792085</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="U5" t="n">
-        <v>192.2396576784737</v>
+        <v>104.579574354341</v>
       </c>
       <c r="V5" t="n">
-        <v>118.033191277739</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="W5" t="n">
-        <v>118.033191277739</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="X5" t="n">
-        <v>118.033191277739</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="Y5" t="n">
-        <v>43.82672487700421</v>
+        <v>54.28158745825552</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145.4446741454401</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4446741454401</v>
+        <v>104.579574354341</v>
       </c>
       <c r="D6" t="n">
-        <v>145.4446741454401</v>
+        <v>104.579574354341</v>
       </c>
       <c r="E6" t="n">
-        <v>145.4446741454401</v>
+        <v>104.579574354341</v>
       </c>
       <c r="F6" t="n">
-        <v>71.23820774470533</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="G6" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H6" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I6" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J6" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K6" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L6" t="n">
-        <v>67.70305091229125</v>
+        <v>50.30614171732424</v>
       </c>
       <c r="M6" t="n">
-        <v>140.4328086316514</v>
+        <v>99.60319867417768</v>
       </c>
       <c r="N6" t="n">
-        <v>213.1625663510115</v>
+        <v>148.9002556310311</v>
       </c>
       <c r="O6" t="n">
-        <v>251.4830235083501</v>
+        <v>170.4401317516711</v>
       </c>
       <c r="P6" t="n">
-        <v>293.8576069469096</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q6" t="n">
-        <v>293.8576069469096</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R6" t="n">
-        <v>219.6511405461749</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="S6" t="n">
-        <v>219.6511405461749</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="T6" t="n">
-        <v>219.6511405461749</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="U6" t="n">
-        <v>219.6511405461749</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="V6" t="n">
-        <v>219.6511405461749</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="W6" t="n">
-        <v>145.4446741454401</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="X6" t="n">
-        <v>145.4446741454401</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="Y6" t="n">
-        <v>145.4446741454401</v>
+        <v>154.8775612504266</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="C7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="D7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="E7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="F7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="M7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="N7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="O7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="P7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="R7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="S7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="T7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="U7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="V7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="W7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="X7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.969012809993897</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="C8" t="n">
-        <v>8.969012809993897</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="D8" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E8" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F8" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G8" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H8" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I8" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J8" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687545</v>
+        <v>21.18357364821451</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773408</v>
+        <v>75.16870670940366</v>
       </c>
       <c r="M8" t="n">
-        <v>202.420917408393</v>
+        <v>166.9070065056148</v>
       </c>
       <c r="N8" t="n">
-        <v>313.4124509320676</v>
+        <v>258.6453063018261</v>
       </c>
       <c r="O8" t="n">
-        <v>404.8833474416799</v>
+        <v>337.6943058037292</v>
       </c>
       <c r="P8" t="n">
-        <v>448.4506404996948</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q8" t="n">
-        <v>448.4506404996948</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="R8" t="n">
-        <v>448.4506404996948</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="S8" t="n">
-        <v>448.4506404996948</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="T8" t="n">
-        <v>448.4506404996948</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="U8" t="n">
-        <v>335.2055292623982</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="V8" t="n">
-        <v>235.4592352845873</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="W8" t="n">
-        <v>235.4592352845873</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="X8" t="n">
-        <v>235.4592352845873</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.2141240472906</v>
+        <v>194.6151136988902</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.969012809993897</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="C9" t="n">
-        <v>8.969012809993897</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="D9" t="n">
-        <v>8.969012809993897</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="E9" t="n">
-        <v>8.969012809993897</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="F9" t="n">
-        <v>8.969012809993897</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="G9" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H9" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I9" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J9" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K9" t="n">
-        <v>8.969012809993897</v>
+        <v>28.29609765201163</v>
       </c>
       <c r="L9" t="n">
-        <v>91.93611230387164</v>
+        <v>102.6982772648967</v>
       </c>
       <c r="M9" t="n">
-        <v>202.9276458275461</v>
+        <v>194.4365770611079</v>
       </c>
       <c r="N9" t="n">
-        <v>313.9191793512206</v>
+        <v>286.1748768573191</v>
       </c>
       <c r="O9" t="n">
-        <v>413.9712807824706</v>
+        <v>317.2247932514005</v>
       </c>
       <c r="P9" t="n">
-        <v>448.4506404996948</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q9" t="n">
-        <v>439.1005811301782</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="R9" t="n">
-        <v>439.1005811301782</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="S9" t="n">
-        <v>439.1005811301782</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="T9" t="n">
-        <v>439.1005811301782</v>
+        <v>262.5712233385049</v>
       </c>
       <c r="U9" t="n">
-        <v>325.8554698928816</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="V9" t="n">
-        <v>212.6103586555849</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="W9" t="n">
-        <v>99.36524741828821</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="X9" t="n">
-        <v>8.969012809993897</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.969012809993897</v>
+        <v>194.6151136988902</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H10" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I10" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J10" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K10" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L10" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="M10" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="N10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="O10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="R10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="S10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="T10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="U10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="V10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="W10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>204.4218319897903</v>
       </c>
       <c r="D11" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E11" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F11" t="n">
         <v>15.00204697330559</v>
@@ -5053,40 +5053,40 @@
         <v>347.1218190644753</v>
       </c>
       <c r="N11" t="n">
-        <v>509.4952041123827</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O11" t="n">
         <v>649.4845259985582</v>
       </c>
       <c r="P11" t="n">
-        <v>734.4611726020264</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q11" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R11" t="n">
-        <v>750.1023486652796</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S11" t="n">
-        <v>750.1023486652796</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="T11" t="n">
-        <v>560.6825636487948</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="U11" t="n">
-        <v>371.2627786323101</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="V11" t="n">
-        <v>204.4218319897903</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="W11" t="n">
-        <v>204.4218319897903</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="X11" t="n">
-        <v>204.4218319897903</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.4218319897903</v>
+        <v>293.4024563932556</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15.00204697330559</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="C12" t="n">
-        <v>15.00204697330559</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="D12" t="n">
-        <v>15.00204697330559</v>
+        <v>458.313241129427</v>
       </c>
       <c r="E12" t="n">
-        <v>15.00204697330559</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F12" t="n">
-        <v>15.00204697330559</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G12" t="n">
         <v>15.00204697330559</v>
@@ -5129,43 +5129,43 @@
         <v>183.5548280772649</v>
       </c>
       <c r="M12" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N12" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O12" t="n">
         <v>649.2101578476347</v>
       </c>
       <c r="P12" t="n">
-        <v>739.5989987017061</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q12" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R12" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S12" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T12" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U12" t="n">
-        <v>560.6825636487948</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V12" t="n">
-        <v>371.2627786323101</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W12" t="n">
-        <v>181.8429936158253</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X12" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.00204697330559</v>
+        <v>607.2476507906783</v>
       </c>
     </row>
     <row r="13">
@@ -5205,7 +5205,7 @@
         <v>15.00204697330559</v>
       </c>
       <c r="L13" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M13" t="n">
         <v>42.98993985170716</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>371.26277863231</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="C14" t="n">
-        <v>371.26277863231</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="D14" t="n">
-        <v>204.4218319897903</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="E14" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F14" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G14" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H14" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I14" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J14" t="n">
         <v>21.03371160678489</v>
       </c>
       <c r="K14" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L14" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M14" t="n">
-        <v>347.1218190644754</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N14" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O14" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985592</v>
       </c>
       <c r="P14" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q14" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R14" t="n">
-        <v>750.1023486652795</v>
+        <v>672.2420264262266</v>
       </c>
       <c r="S14" t="n">
-        <v>750.1023486652795</v>
+        <v>672.2420264262266</v>
       </c>
       <c r="T14" t="n">
-        <v>750.1023486652795</v>
+        <v>672.2420264262266</v>
       </c>
       <c r="U14" t="n">
-        <v>560.6825636487947</v>
+        <v>482.8222414097415</v>
       </c>
       <c r="V14" t="n">
-        <v>371.26277863231</v>
+        <v>482.8222414097415</v>
       </c>
       <c r="W14" t="n">
-        <v>371.26277863231</v>
+        <v>482.8222414097415</v>
       </c>
       <c r="X14" t="n">
-        <v>371.26277863231</v>
+        <v>482.8222414097415</v>
       </c>
       <c r="Y14" t="n">
-        <v>371.26277863231</v>
+        <v>482.8222414097415</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>495.2270892330031</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C15" t="n">
-        <v>320.7740599518761</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D15" t="n">
-        <v>320.7740599518761</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E15" t="n">
-        <v>161.5366049464206</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F15" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G15" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H15" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I15" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J15" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K15" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L15" t="n">
-        <v>183.5548280772649</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M15" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N15" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O15" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P15" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q15" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R15" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S15" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T15" t="n">
-        <v>684.6468742494878</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="U15" t="n">
-        <v>684.6468742494878</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="V15" t="n">
-        <v>684.6468742494878</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="W15" t="n">
-        <v>684.6468742494878</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="X15" t="n">
-        <v>495.2270892330031</v>
+        <v>181.8429936158256</v>
       </c>
       <c r="Y15" t="n">
-        <v>495.2270892330031</v>
+        <v>181.8429936158256</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="C16" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="D16" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="E16" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="F16" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="G16" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="H16" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I16" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J16" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K16" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L16" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230187</v>
       </c>
       <c r="M16" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170739</v>
       </c>
       <c r="N16" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396366</v>
       </c>
       <c r="O16" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="P16" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="R16" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="S16" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="T16" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="U16" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="V16" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="W16" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="X16" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Y16" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829027</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>63.04541527370361</v>
+        <v>794.4678903263982</v>
       </c>
       <c r="C17" t="n">
-        <v>63.04541527370361</v>
+        <v>425.5053733859865</v>
       </c>
       <c r="D17" t="n">
-        <v>63.04541527370361</v>
+        <v>425.5053733859865</v>
       </c>
       <c r="E17" t="n">
-        <v>63.04541527370361</v>
+        <v>425.5053733859865</v>
       </c>
       <c r="F17" t="n">
-        <v>63.04541527370361</v>
+        <v>425.5053733859865</v>
       </c>
       <c r="G17" t="n">
-        <v>27.01089370414179</v>
+        <v>41.48964008861475</v>
       </c>
       <c r="H17" t="n">
-        <v>27.01089370414179</v>
+        <v>41.48964008861475</v>
       </c>
       <c r="I17" t="n">
-        <v>27.01089370414179</v>
+        <v>30.41404607715184</v>
       </c>
       <c r="J17" t="n">
-        <v>76.69148555090078</v>
+        <v>92.46418127429592</v>
       </c>
       <c r="K17" t="n">
-        <v>201.8883326102873</v>
+        <v>236.1997673425825</v>
       </c>
       <c r="L17" t="n">
-        <v>394.1078539078984</v>
+        <v>451.4182336881734</v>
       </c>
       <c r="M17" t="n">
-        <v>639.6585455322459</v>
+        <v>722.5596831006873</v>
       </c>
       <c r="N17" t="n">
-        <v>893.7963124412526</v>
+        <v>1002.702293013187</v>
       </c>
       <c r="O17" t="n">
-        <v>1120.436137987351</v>
+        <v>1253.897754396954</v>
       </c>
       <c r="P17" t="n">
-        <v>1279.36698473431</v>
+        <v>1433.786268216649</v>
       </c>
       <c r="Q17" t="n">
-        <v>1350.54468520709</v>
+        <v>1520.702303857592</v>
       </c>
       <c r="R17" t="n">
-        <v>1350.54468520709</v>
+        <v>1520.702303857592</v>
       </c>
       <c r="S17" t="n">
-        <v>1202.122192834498</v>
+        <v>1520.702303857592</v>
       </c>
       <c r="T17" t="n">
-        <v>988.8192862885663</v>
+        <v>1520.702303857592</v>
       </c>
       <c r="U17" t="n">
-        <v>735.1549402958323</v>
+        <v>1520.702303857592</v>
       </c>
       <c r="V17" t="n">
-        <v>404.0920529522616</v>
+        <v>1520.702303857592</v>
       </c>
       <c r="W17" t="n">
-        <v>63.04541527370361</v>
+        <v>1167.933648587478</v>
       </c>
       <c r="X17" t="n">
-        <v>63.04541527370361</v>
+        <v>794.4678903263982</v>
       </c>
       <c r="Y17" t="n">
-        <v>63.04541527370361</v>
+        <v>794.4678903263982</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>27.01089370414179</v>
+        <v>561.4423813020727</v>
       </c>
       <c r="C18" t="n">
-        <v>27.01089370414179</v>
+        <v>561.4423813020727</v>
       </c>
       <c r="D18" t="n">
-        <v>27.01089370414179</v>
+        <v>412.5079716408214</v>
       </c>
       <c r="E18" t="n">
-        <v>27.01089370414179</v>
+        <v>412.5079716408214</v>
       </c>
       <c r="F18" t="n">
-        <v>27.01089370414179</v>
+        <v>265.9734136677064</v>
       </c>
       <c r="G18" t="n">
-        <v>27.01089370414179</v>
+        <v>128.7945451637331</v>
       </c>
       <c r="H18" t="n">
-        <v>27.01089370414179</v>
+        <v>30.41404607715184</v>
       </c>
       <c r="I18" t="n">
-        <v>27.01089370414179</v>
+        <v>30.41404607715184</v>
       </c>
       <c r="J18" t="n">
-        <v>37.78246690495216</v>
+        <v>48.55283455759657</v>
       </c>
       <c r="K18" t="n">
-        <v>134.3476259009986</v>
+        <v>157.7097378993232</v>
       </c>
       <c r="L18" t="n">
-        <v>310.5139402071233</v>
+        <v>350.8072063959822</v>
       </c>
       <c r="M18" t="n">
-        <v>535.4485879464</v>
+        <v>595.4997124846612</v>
       </c>
       <c r="N18" t="n">
-        <v>780.7452314131492</v>
+        <v>861.0771460199791</v>
       </c>
       <c r="O18" t="n">
-        <v>982.9239423973728</v>
+        <v>1081.808817742995</v>
       </c>
       <c r="P18" t="n">
-        <v>1125.857116108951</v>
+        <v>1239.632378105366</v>
       </c>
       <c r="Q18" t="n">
-        <v>1171.484961076542</v>
+        <v>1295.214052212666</v>
       </c>
       <c r="R18" t="n">
-        <v>1171.484961076542</v>
+        <v>1244.420503310496</v>
       </c>
       <c r="S18" t="n">
-        <v>1171.484961076542</v>
+        <v>1099.830077744921</v>
       </c>
       <c r="T18" t="n">
-        <v>1171.484961076542</v>
+        <v>903.8989585573045</v>
       </c>
       <c r="U18" t="n">
-        <v>943.3582109443429</v>
+        <v>729.6577183221407</v>
       </c>
       <c r="V18" t="n">
-        <v>708.2061027126001</v>
+        <v>729.6577183221407</v>
       </c>
       <c r="W18" t="n">
-        <v>453.9687459843985</v>
+        <v>729.6577183221407</v>
       </c>
       <c r="X18" t="n">
-        <v>246.1172457788657</v>
+        <v>729.6577183221407</v>
       </c>
       <c r="Y18" t="n">
-        <v>195.2262307242098</v>
+        <v>729.6577183221407</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27.01089370414179</v>
+        <v>299.0506316800962</v>
       </c>
       <c r="C19" t="n">
-        <v>27.01089370414179</v>
+        <v>299.0506316800962</v>
       </c>
       <c r="D19" t="n">
-        <v>27.01089370414179</v>
+        <v>299.0506316800962</v>
       </c>
       <c r="E19" t="n">
-        <v>27.01089370414179</v>
+        <v>177.3039935750622</v>
       </c>
       <c r="F19" t="n">
-        <v>27.01089370414179</v>
+        <v>30.41404607715184</v>
       </c>
       <c r="G19" t="n">
-        <v>27.01089370414179</v>
+        <v>30.41404607715184</v>
       </c>
       <c r="H19" t="n">
-        <v>27.01089370414179</v>
+        <v>30.41404607715184</v>
       </c>
       <c r="I19" t="n">
-        <v>27.01089370414179</v>
+        <v>30.41404607715184</v>
       </c>
       <c r="J19" t="n">
-        <v>27.01089370414179</v>
+        <v>30.41404607715184</v>
       </c>
       <c r="K19" t="n">
-        <v>39.84944722784345</v>
+        <v>50.84789001160284</v>
       </c>
       <c r="L19" t="n">
-        <v>86.18417328111897</v>
+        <v>106.9019728236729</v>
       </c>
       <c r="M19" t="n">
-        <v>138.2959283105005</v>
+        <v>169.2614268008284</v>
       </c>
       <c r="N19" t="n">
-        <v>197.0261081867309</v>
+        <v>237.995638248588</v>
       </c>
       <c r="O19" t="n">
-        <v>230.9598461398794</v>
+        <v>281.1697185574745</v>
       </c>
       <c r="P19" t="n">
-        <v>240.9340500586976</v>
+        <v>299.0506316800962</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.9340500586976</v>
+        <v>299.0506316800962</v>
       </c>
       <c r="R19" t="n">
-        <v>240.9340500586976</v>
+        <v>299.0506316800962</v>
       </c>
       <c r="S19" t="n">
-        <v>240.9340500586976</v>
+        <v>299.0506316800962</v>
       </c>
       <c r="T19" t="n">
-        <v>240.9340500586976</v>
+        <v>299.0506316800962</v>
       </c>
       <c r="U19" t="n">
-        <v>240.9340500586976</v>
+        <v>299.0506316800962</v>
       </c>
       <c r="V19" t="n">
-        <v>240.9340500586976</v>
+        <v>299.0506316800962</v>
       </c>
       <c r="W19" t="n">
-        <v>27.01089370414179</v>
+        <v>299.0506316800962</v>
       </c>
       <c r="X19" t="n">
-        <v>27.01089370414179</v>
+        <v>299.0506316800962</v>
       </c>
       <c r="Y19" t="n">
-        <v>27.01089370414179</v>
+        <v>299.0506316800962</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>903.5586324520143</v>
+        <v>131.1906386122176</v>
       </c>
       <c r="C20" t="n">
-        <v>562.5119947734563</v>
+        <v>131.1906386122176</v>
       </c>
       <c r="D20" t="n">
-        <v>562.5119947734563</v>
+        <v>131.1906386122176</v>
       </c>
       <c r="E20" t="n">
-        <v>562.5119947734563</v>
+        <v>131.1906386122176</v>
       </c>
       <c r="F20" t="n">
-        <v>368.0575313826998</v>
+        <v>131.1906386122176</v>
       </c>
       <c r="G20" t="n">
-        <v>27.01089370414179</v>
+        <v>131.1906386122176</v>
       </c>
       <c r="H20" t="n">
-        <v>27.01089370414179</v>
+        <v>131.1906386122176</v>
       </c>
       <c r="I20" t="n">
-        <v>27.01089370414179</v>
+        <v>30.41404607715184</v>
       </c>
       <c r="J20" t="n">
-        <v>76.69148555090061</v>
+        <v>92.46418127429592</v>
       </c>
       <c r="K20" t="n">
-        <v>201.8883326102873</v>
+        <v>236.1997673425825</v>
       </c>
       <c r="L20" t="n">
-        <v>394.1078539078981</v>
+        <v>451.4182336881734</v>
       </c>
       <c r="M20" t="n">
-        <v>639.6585455322455</v>
+        <v>722.5596831006873</v>
       </c>
       <c r="N20" t="n">
-        <v>893.7963124412522</v>
+        <v>1002.702293013187</v>
       </c>
       <c r="O20" t="n">
-        <v>1120.436137987351</v>
+        <v>1253.897754396954</v>
       </c>
       <c r="P20" t="n">
-        <v>1279.36698473431</v>
+        <v>1433.786268216649</v>
       </c>
       <c r="Q20" t="n">
-        <v>1350.54468520709</v>
+        <v>1520.702303857592</v>
       </c>
       <c r="R20" t="n">
-        <v>1305.64547081734</v>
+        <v>1485.143842573332</v>
       </c>
       <c r="S20" t="n">
-        <v>1157.222978444748</v>
+        <v>1485.143842573332</v>
       </c>
       <c r="T20" t="n">
-        <v>1157.222978444748</v>
+        <v>1272.491868655809</v>
       </c>
       <c r="U20" t="n">
-        <v>903.5586324520143</v>
+        <v>1272.491868655809</v>
       </c>
       <c r="V20" t="n">
-        <v>903.5586324520143</v>
+        <v>941.4289813122381</v>
       </c>
       <c r="W20" t="n">
-        <v>903.5586324520143</v>
+        <v>588.6603260421239</v>
       </c>
       <c r="X20" t="n">
-        <v>903.5586324520143</v>
+        <v>588.6603260421239</v>
       </c>
       <c r="Y20" t="n">
-        <v>903.5586324520143</v>
+        <v>204.6445927447521</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>470.0413365026349</v>
+        <v>571.7454266462769</v>
       </c>
       <c r="C21" t="n">
-        <v>470.0413365026349</v>
+        <v>571.7454266462769</v>
       </c>
       <c r="D21" t="n">
-        <v>470.0413365026349</v>
+        <v>571.7454266462769</v>
       </c>
       <c r="E21" t="n">
-        <v>310.8038814971794</v>
+        <v>412.5079716408214</v>
       </c>
       <c r="F21" t="n">
-        <v>164.2693235240644</v>
+        <v>265.9734136677064</v>
       </c>
       <c r="G21" t="n">
-        <v>27.01089370414179</v>
+        <v>128.7945451637331</v>
       </c>
       <c r="H21" t="n">
-        <v>27.01089370414179</v>
+        <v>30.41404607715184</v>
       </c>
       <c r="I21" t="n">
-        <v>27.01089370414179</v>
+        <v>30.41404607715184</v>
       </c>
       <c r="J21" t="n">
-        <v>37.78246690495216</v>
+        <v>48.55283455759657</v>
       </c>
       <c r="K21" t="n">
-        <v>134.3476259009986</v>
+        <v>157.7097378993232</v>
       </c>
       <c r="L21" t="n">
-        <v>310.5139402071233</v>
+        <v>350.8072063959822</v>
       </c>
       <c r="M21" t="n">
-        <v>535.4485879464</v>
+        <v>595.4997124846612</v>
       </c>
       <c r="N21" t="n">
-        <v>780.7452314131492</v>
+        <v>861.0771460199791</v>
       </c>
       <c r="O21" t="n">
-        <v>982.9239423973728</v>
+        <v>1081.808817742995</v>
       </c>
       <c r="P21" t="n">
-        <v>1125.857116108951</v>
+        <v>1239.632378105366</v>
       </c>
       <c r="Q21" t="n">
-        <v>1171.484961076542</v>
+        <v>1295.214052212666</v>
       </c>
       <c r="R21" t="n">
-        <v>1171.484961076542</v>
+        <v>1244.420503310496</v>
       </c>
       <c r="S21" t="n">
-        <v>1171.484961076542</v>
+        <v>1099.830077744921</v>
       </c>
       <c r="T21" t="n">
-        <v>975.2331539531477</v>
+        <v>903.8989585573045</v>
       </c>
       <c r="U21" t="n">
-        <v>747.1064038209488</v>
+        <v>903.8989585573045</v>
       </c>
       <c r="V21" t="n">
-        <v>747.1064038209488</v>
+        <v>903.8989585573045</v>
       </c>
       <c r="W21" t="n">
-        <v>677.8928367081678</v>
+        <v>649.6616018291029</v>
       </c>
       <c r="X21" t="n">
-        <v>470.0413365026349</v>
+        <v>571.7454266462769</v>
       </c>
       <c r="Y21" t="n">
-        <v>470.0413365026349</v>
+        <v>571.7454266462769</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.01089370414179</v>
+        <v>199.3502290050588</v>
       </c>
       <c r="C22" t="n">
-        <v>27.01089370414179</v>
+        <v>30.41404607715184</v>
       </c>
       <c r="D22" t="n">
-        <v>27.01089370414179</v>
+        <v>30.41404607715184</v>
       </c>
       <c r="E22" t="n">
-        <v>27.01089370414179</v>
+        <v>30.41404607715184</v>
       </c>
       <c r="F22" t="n">
-        <v>27.01089370414179</v>
+        <v>30.41404607715184</v>
       </c>
       <c r="G22" t="n">
-        <v>27.01089370414179</v>
+        <v>30.41404607715184</v>
       </c>
       <c r="H22" t="n">
-        <v>27.01089370414179</v>
+        <v>30.41404607715184</v>
       </c>
       <c r="I22" t="n">
-        <v>27.01089370414179</v>
+        <v>30.41404607715184</v>
       </c>
       <c r="J22" t="n">
-        <v>27.01089370414179</v>
+        <v>30.41404607715184</v>
       </c>
       <c r="K22" t="n">
-        <v>39.84944722784345</v>
+        <v>50.84789001160284</v>
       </c>
       <c r="L22" t="n">
-        <v>86.18417328111897</v>
+        <v>106.9019728236729</v>
       </c>
       <c r="M22" t="n">
-        <v>138.2959283105005</v>
+        <v>169.2614268008284</v>
       </c>
       <c r="N22" t="n">
-        <v>197.0261081867309</v>
+        <v>237.995638248588</v>
       </c>
       <c r="O22" t="n">
-        <v>230.9598461398794</v>
+        <v>281.1697185574745</v>
       </c>
       <c r="P22" t="n">
-        <v>240.9340500586976</v>
+        <v>299.0506316800962</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.9340500586976</v>
+        <v>299.0506316800962</v>
       </c>
       <c r="R22" t="n">
-        <v>240.9340500586976</v>
+        <v>299.0506316800962</v>
       </c>
       <c r="S22" t="n">
-        <v>240.9340500586976</v>
+        <v>299.0506316800962</v>
       </c>
       <c r="T22" t="n">
-        <v>240.9340500586976</v>
+        <v>299.0506316800962</v>
       </c>
       <c r="U22" t="n">
-        <v>240.9340500586976</v>
+        <v>299.0506316800962</v>
       </c>
       <c r="V22" t="n">
-        <v>240.9340500586976</v>
+        <v>299.0506316800962</v>
       </c>
       <c r="W22" t="n">
-        <v>27.01089370414179</v>
+        <v>299.0506316800962</v>
       </c>
       <c r="X22" t="n">
-        <v>27.01089370414179</v>
+        <v>299.0506316800962</v>
       </c>
       <c r="Y22" t="n">
-        <v>27.01089370414179</v>
+        <v>299.0506316800962</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1232.051415525376</v>
+        <v>770.5974120852553</v>
       </c>
       <c r="C23" t="n">
-        <v>1232.051415525376</v>
+        <v>401.6348951448436</v>
       </c>
       <c r="D23" t="n">
-        <v>873.7857169186259</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="E23" t="n">
-        <v>487.9974643203817</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="F23" t="n">
-        <v>487.9974643203817</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G23" t="n">
-        <v>71.96641902378889</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H23" t="n">
-        <v>71.96641902378889</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I23" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J23" t="n">
-        <v>152.5078184301902</v>
+        <v>152.5078184301904</v>
       </c>
       <c r="K23" t="n">
-        <v>366.8168396232723</v>
+        <v>366.8168396232724</v>
       </c>
       <c r="L23" t="n">
-        <v>669.5878927711875</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M23" t="n">
         <v>1038.148464578731</v>
@@ -6010,31 +6010,31 @@
         <v>2021.630958172449</v>
       </c>
       <c r="Q23" t="n">
-        <v>2168.459826904655</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="R23" t="n">
-        <v>2168.459826904655</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="S23" t="n">
-        <v>2168.459826904655</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="T23" t="n">
-        <v>1958.28582905657</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="U23" t="n">
-        <v>1958.28582905657</v>
+        <v>1914.852662567165</v>
       </c>
       <c r="V23" t="n">
-        <v>1958.28582905657</v>
+        <v>1583.789775223594</v>
       </c>
       <c r="W23" t="n">
-        <v>1605.517173786456</v>
+        <v>1583.789775223594</v>
       </c>
       <c r="X23" t="n">
-        <v>1232.051415525376</v>
+        <v>1210.324016962514</v>
       </c>
       <c r="Y23" t="n">
-        <v>1232.051415525376</v>
+        <v>1157.197252149377</v>
       </c>
     </row>
     <row r="24">
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>633.1241935363221</v>
+        <v>928.1625546147325</v>
       </c>
       <c r="C24" t="n">
-        <v>633.1241935363221</v>
+        <v>753.7095253336055</v>
       </c>
       <c r="D24" t="n">
-        <v>484.1897838750708</v>
+        <v>604.7751156723542</v>
       </c>
       <c r="E24" t="n">
-        <v>324.9523288696153</v>
+        <v>458.901244094985</v>
       </c>
       <c r="F24" t="n">
-        <v>178.4177708965003</v>
+        <v>312.36668612187</v>
       </c>
       <c r="G24" t="n">
-        <v>43.3691965380931</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H24" t="n">
-        <v>43.3691965380931</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I24" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J24" t="n">
-        <v>89.55356510562335</v>
+        <v>89.55356510562336</v>
       </c>
       <c r="K24" t="n">
         <v>246.6448318504523</v>
@@ -6101,19 +6101,19 @@
         <v>1766.227047333489</v>
       </c>
       <c r="U24" t="n">
-        <v>1538.125457466753</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="V24" t="n">
-        <v>1302.97334923501</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="W24" t="n">
-        <v>1048.735992506809</v>
+        <v>1511.989690605287</v>
       </c>
       <c r="X24" t="n">
-        <v>840.8844923012759</v>
+        <v>1304.138190399754</v>
       </c>
       <c r="Y24" t="n">
-        <v>633.1241935363221</v>
+        <v>1096.377891634801</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.3691965380931</v>
+        <v>362.4220188783357</v>
       </c>
       <c r="C25" t="n">
-        <v>43.3691965380931</v>
+        <v>193.4858359504289</v>
       </c>
       <c r="D25" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="E25" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="F25" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G25" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H25" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I25" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J25" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="K25" t="n">
         <v>92.71685897981541</v>
@@ -6180,19 +6180,19 @@
         <v>520.2893470406002</v>
       </c>
       <c r="U25" t="n">
-        <v>231.1630260146237</v>
+        <v>362.4220188783357</v>
       </c>
       <c r="V25" t="n">
-        <v>231.1630260146237</v>
+        <v>362.4220188783357</v>
       </c>
       <c r="W25" t="n">
-        <v>43.3691965380931</v>
+        <v>362.4220188783357</v>
       </c>
       <c r="X25" t="n">
-        <v>43.3691965380931</v>
+        <v>362.4220188783357</v>
       </c>
       <c r="Y25" t="n">
-        <v>43.3691965380931</v>
+        <v>362.4220188783357</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1447.257607585274</v>
+        <v>1584.82007079549</v>
       </c>
       <c r="C26" t="n">
-        <v>1078.295090644862</v>
+        <v>1215.857553855079</v>
       </c>
       <c r="D26" t="n">
-        <v>1078.295090644862</v>
+        <v>857.5918552483283</v>
       </c>
       <c r="E26" t="n">
-        <v>949.3392845809428</v>
+        <v>471.8036026500841</v>
       </c>
       <c r="F26" t="n">
-        <v>538.3533797913353</v>
+        <v>471.8036026500841</v>
       </c>
       <c r="G26" t="n">
-        <v>122.3223344947425</v>
+        <v>55.77255735349132</v>
       </c>
       <c r="H26" t="n">
-        <v>122.3223344947425</v>
+        <v>55.77255735349132</v>
       </c>
       <c r="I26" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J26" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301904</v>
       </c>
       <c r="K26" t="n">
-        <v>366.8168396232727</v>
+        <v>366.8168396232724</v>
       </c>
       <c r="L26" t="n">
-        <v>669.5878927711881</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M26" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N26" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O26" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P26" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q26" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="R26" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="S26" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="T26" t="n">
-        <v>2168.459826904656</v>
+        <v>1958.28582905657</v>
       </c>
       <c r="U26" t="n">
-        <v>2168.459826904656</v>
+        <v>1958.28582905657</v>
       </c>
       <c r="V26" t="n">
-        <v>1837.396939561086</v>
+        <v>1958.28582905657</v>
       </c>
       <c r="W26" t="n">
-        <v>1837.396939561086</v>
+        <v>1958.28582905657</v>
       </c>
       <c r="X26" t="n">
-        <v>1837.396939561086</v>
+        <v>1584.82007079549</v>
       </c>
       <c r="Y26" t="n">
-        <v>1447.257607585274</v>
+        <v>1584.82007079549</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>299.4492115120162</v>
+        <v>662.8700842708109</v>
       </c>
       <c r="C27" t="n">
-        <v>299.4492115120162</v>
+        <v>488.4170549896839</v>
       </c>
       <c r="D27" t="n">
-        <v>299.4492115120162</v>
+        <v>339.4826453284327</v>
       </c>
       <c r="E27" t="n">
-        <v>140.2117565065607</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="F27" t="n">
-        <v>43.36919653809313</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G27" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H27" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I27" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J27" t="n">
-        <v>89.55356510562338</v>
+        <v>89.55356510562335</v>
       </c>
       <c r="K27" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L27" t="n">
         <v>504.1959674104402</v>
       </c>
       <c r="M27" t="n">
-        <v>824.1028628789498</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N27" t="n">
         <v>1166.885386873582</v>
@@ -6332,25 +6332,25 @@
         <v>1766.227047333489</v>
       </c>
       <c r="S27" t="n">
-        <v>1627.262386835207</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T27" t="n">
-        <v>1432.552065309183</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="U27" t="n">
-        <v>1204.450475442447</v>
+        <v>1538.125457466753</v>
       </c>
       <c r="V27" t="n">
-        <v>969.2983672107046</v>
+        <v>1302.97334923501</v>
       </c>
       <c r="W27" t="n">
-        <v>715.061010482503</v>
+        <v>1048.735992506809</v>
       </c>
       <c r="X27" t="n">
-        <v>507.2095102769701</v>
+        <v>1038.845720055833</v>
       </c>
       <c r="Y27" t="n">
-        <v>299.4492115120162</v>
+        <v>831.0854212908789</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>340.3757834483392</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="C28" t="n">
-        <v>340.3757834483392</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="D28" t="n">
-        <v>190.2591440360035</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="E28" t="n">
-        <v>190.2591440360035</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="F28" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="G28" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H28" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I28" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J28" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="K28" t="n">
-        <v>92.71685897981544</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L28" t="n">
         <v>185.7706748018945</v>
@@ -6414,22 +6414,22 @@
         <v>520.2893470406002</v>
       </c>
       <c r="T28" t="n">
-        <v>340.3757834483392</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U28" t="n">
-        <v>340.3757834483392</v>
+        <v>445.8102405118629</v>
       </c>
       <c r="V28" t="n">
-        <v>340.3757834483392</v>
+        <v>445.8102405118629</v>
       </c>
       <c r="W28" t="n">
-        <v>340.3757834483392</v>
+        <v>445.8102405118629</v>
       </c>
       <c r="X28" t="n">
-        <v>340.3757834483392</v>
+        <v>445.8102405118629</v>
       </c>
       <c r="Y28" t="n">
-        <v>340.3757834483392</v>
+        <v>225.0176613683328</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2000.794048670971</v>
+        <v>1226.497304767628</v>
       </c>
       <c r="C29" t="n">
-        <v>2000.794048670971</v>
+        <v>1226.497304767628</v>
       </c>
       <c r="D29" t="n">
-        <v>1642.52835006422</v>
+        <v>1226.497304767628</v>
       </c>
       <c r="E29" t="n">
-        <v>1256.740097465976</v>
+        <v>840.7090521693834</v>
       </c>
       <c r="F29" t="n">
-        <v>845.7541926763686</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="G29" t="n">
         <v>429.7231473797759</v>
@@ -6493,22 +6493,22 @@
         <v>2168.459826904656</v>
       </c>
       <c r="T29" t="n">
-        <v>2000.794048670971</v>
+        <v>2003.236476807561</v>
       </c>
       <c r="U29" t="n">
-        <v>2000.794048670971</v>
+        <v>2003.236476807561</v>
       </c>
       <c r="V29" t="n">
-        <v>2000.794048670971</v>
+        <v>2003.236476807561</v>
       </c>
       <c r="W29" t="n">
-        <v>2000.794048670971</v>
+        <v>2003.236476807561</v>
       </c>
       <c r="X29" t="n">
-        <v>2000.794048670971</v>
+        <v>2003.236476807561</v>
       </c>
       <c r="Y29" t="n">
-        <v>2000.794048670971</v>
+        <v>1613.097144831749</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>270.19853499023</v>
+        <v>840.8844923012759</v>
       </c>
       <c r="C30" t="n">
-        <v>270.19853499023</v>
+        <v>666.431463020149</v>
       </c>
       <c r="D30" t="n">
-        <v>270.19853499023</v>
+        <v>517.4970533588977</v>
       </c>
       <c r="E30" t="n">
-        <v>110.9610799847745</v>
+        <v>358.2595983534422</v>
       </c>
       <c r="F30" t="n">
-        <v>43.36919653809311</v>
+        <v>312.36668612187</v>
       </c>
       <c r="G30" t="n">
-        <v>43.36919653809311</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H30" t="n">
-        <v>43.36919653809311</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I30" t="n">
         <v>43.36919653809311</v>
@@ -6572,22 +6572,22 @@
         <v>1766.227047333489</v>
       </c>
       <c r="T30" t="n">
-        <v>1571.516725807465</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="U30" t="n">
-        <v>1343.415135940729</v>
+        <v>1538.125457466753</v>
       </c>
       <c r="V30" t="n">
-        <v>1108.263027708986</v>
+        <v>1302.97334923501</v>
       </c>
       <c r="W30" t="n">
-        <v>854.0256709807848</v>
+        <v>1048.735992506809</v>
       </c>
       <c r="X30" t="n">
-        <v>646.1741707752519</v>
+        <v>840.8844923012759</v>
       </c>
       <c r="Y30" t="n">
-        <v>438.413872010298</v>
+        <v>840.8844923012759</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>338.1722376183966</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="C31" t="n">
-        <v>338.1722376183966</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="D31" t="n">
-        <v>338.1722376183966</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="E31" t="n">
-        <v>190.2591440360035</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="F31" t="n">
-        <v>43.36919653809311</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="G31" t="n">
         <v>43.36919653809311</v>
@@ -6651,22 +6651,22 @@
         <v>520.2893470406002</v>
       </c>
       <c r="T31" t="n">
-        <v>520.2893470406002</v>
+        <v>296.6854897332238</v>
       </c>
       <c r="U31" t="n">
-        <v>520.2893470406002</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="V31" t="n">
-        <v>338.1722376183966</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="W31" t="n">
-        <v>338.1722376183966</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="X31" t="n">
-        <v>338.1722376183966</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="Y31" t="n">
-        <v>338.1722376183966</v>
+        <v>211.5020259430747</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>886.1202413417741</v>
+        <v>1018.254896603643</v>
       </c>
       <c r="C32" t="n">
-        <v>886.1202413417741</v>
+        <v>649.2923796632315</v>
       </c>
       <c r="D32" t="n">
-        <v>886.1202413417741</v>
+        <v>649.2923796632315</v>
       </c>
       <c r="E32" t="n">
-        <v>500.3319887435298</v>
+        <v>263.5041270649872</v>
       </c>
       <c r="F32" t="n">
-        <v>89.34608395392229</v>
+        <v>263.5041270649872</v>
       </c>
       <c r="G32" t="n">
         <v>43.36919653809313</v>
@@ -6727,25 +6727,25 @@
         <v>2168.459826904656</v>
       </c>
       <c r="S32" t="n">
-        <v>2036.325171642787</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="T32" t="n">
-        <v>2036.325171642787</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="U32" t="n">
-        <v>2036.325171642787</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="V32" t="n">
-        <v>2036.325171642787</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="W32" t="n">
-        <v>2036.325171642787</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="X32" t="n">
-        <v>1662.859413381708</v>
+        <v>1794.994068643577</v>
       </c>
       <c r="Y32" t="n">
-        <v>1272.720081405896</v>
+        <v>1404.854736667765</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>709.5672466276365</v>
+        <v>633.1241935363223</v>
       </c>
       <c r="C33" t="n">
-        <v>709.5672466276365</v>
+        <v>458.6711642551953</v>
       </c>
       <c r="D33" t="n">
-        <v>560.6328369663852</v>
+        <v>309.7367545939441</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9012440949851</v>
+        <v>150.4992995884886</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3666861218701</v>
+        <v>150.4992995884886</v>
       </c>
       <c r="G33" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H33" t="n">
-        <v>80.03532540581919</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I33" t="n">
         <v>43.36919653809313</v>
@@ -6803,28 +6803,28 @@
         <v>1766.227047333489</v>
       </c>
       <c r="R33" t="n">
-        <v>1734.238298972667</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S33" t="n">
-        <v>1595.273638474385</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T33" t="n">
-        <v>1595.273638474385</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="U33" t="n">
-        <v>1367.172048607649</v>
+        <v>1538.125457466753</v>
       </c>
       <c r="V33" t="n">
-        <v>1132.019940375906</v>
+        <v>1302.973349235011</v>
       </c>
       <c r="W33" t="n">
-        <v>877.7825836477045</v>
+        <v>1048.735992506809</v>
       </c>
       <c r="X33" t="n">
-        <v>877.7825836477045</v>
+        <v>840.8844923012762</v>
       </c>
       <c r="Y33" t="n">
-        <v>877.7825836477045</v>
+        <v>633.1241935363223</v>
       </c>
     </row>
     <row r="34">
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.36919653809313</v>
+        <v>362.4220188783357</v>
       </c>
       <c r="C34" t="n">
-        <v>43.36919653809313</v>
+        <v>193.4858359504289</v>
       </c>
       <c r="D34" t="n">
         <v>43.36919653809313</v>
@@ -6888,22 +6888,22 @@
         <v>520.2893470406002</v>
       </c>
       <c r="T34" t="n">
-        <v>520.2893470406002</v>
+        <v>362.4220188783357</v>
       </c>
       <c r="U34" t="n">
-        <v>271.3587474361105</v>
+        <v>362.4220188783357</v>
       </c>
       <c r="V34" t="n">
-        <v>271.3587474361105</v>
+        <v>362.4220188783357</v>
       </c>
       <c r="W34" t="n">
-        <v>271.3587474361105</v>
+        <v>362.4220188783357</v>
       </c>
       <c r="X34" t="n">
-        <v>43.36919653809313</v>
+        <v>362.4220188783357</v>
       </c>
       <c r="Y34" t="n">
-        <v>43.36919653809313</v>
+        <v>362.4220188783357</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1391.720654864722</v>
+        <v>1627.222941713</v>
       </c>
       <c r="C35" t="n">
-        <v>1022.75813792431</v>
+        <v>1627.222941713</v>
       </c>
       <c r="D35" t="n">
-        <v>1022.75813792431</v>
+        <v>1268.95724310625</v>
       </c>
       <c r="E35" t="n">
-        <v>636.9698853260661</v>
+        <v>883.1689905080054</v>
       </c>
       <c r="F35" t="n">
-        <v>429.7231473797759</v>
+        <v>472.1830857183979</v>
       </c>
       <c r="G35" t="n">
         <v>429.7231473797759</v>
@@ -6967,22 +6967,22 @@
         <v>2168.459826904656</v>
       </c>
       <c r="T35" t="n">
-        <v>2168.459826904656</v>
+        <v>1958.285829056571</v>
       </c>
       <c r="U35" t="n">
-        <v>2168.459826904656</v>
+        <v>1958.285829056571</v>
       </c>
       <c r="V35" t="n">
-        <v>2168.459826904656</v>
+        <v>1627.222941713</v>
       </c>
       <c r="W35" t="n">
-        <v>2168.459826904656</v>
+        <v>1627.222941713</v>
       </c>
       <c r="X35" t="n">
-        <v>2168.459826904656</v>
+        <v>1627.222941713</v>
       </c>
       <c r="Y35" t="n">
-        <v>1778.320494928844</v>
+        <v>1627.222941713</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>351.5410612047999</v>
+        <v>759.5879999501742</v>
       </c>
       <c r="C36" t="n">
-        <v>351.5410612047999</v>
+        <v>585.1349706690472</v>
       </c>
       <c r="D36" t="n">
-        <v>202.6066515435486</v>
+        <v>436.200561007796</v>
       </c>
       <c r="E36" t="n">
-        <v>43.36919653809311</v>
+        <v>276.9631060023405</v>
       </c>
       <c r="F36" t="n">
-        <v>43.36919653809311</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G36" t="n">
         <v>43.36919653809311</v>
@@ -7043,25 +7043,25 @@
         <v>1766.227047333489</v>
       </c>
       <c r="S36" t="n">
-        <v>1639.809274783105</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T36" t="n">
-        <v>1445.098953257081</v>
+        <v>1571.516725807465</v>
       </c>
       <c r="U36" t="n">
-        <v>1216.997363390345</v>
+        <v>1343.415135940729</v>
       </c>
       <c r="V36" t="n">
-        <v>981.8452551586024</v>
+        <v>1343.415135940729</v>
       </c>
       <c r="W36" t="n">
-        <v>727.6078984304008</v>
+        <v>1343.415135940729</v>
       </c>
       <c r="X36" t="n">
-        <v>519.756398224868</v>
+        <v>1135.563635735196</v>
       </c>
       <c r="Y36" t="n">
-        <v>519.756398224868</v>
+        <v>927.8033369702423</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>230.8721770036396</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="C37" t="n">
-        <v>230.8721770036396</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="D37" t="n">
-        <v>230.8721770036396</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="E37" t="n">
-        <v>82.95908342124648</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="F37" t="n">
         <v>43.36919653809311</v>
@@ -7122,25 +7122,25 @@
         <v>520.2893470406002</v>
       </c>
       <c r="S37" t="n">
-        <v>520.2893470406002</v>
+        <v>321.1098614248266</v>
       </c>
       <c r="T37" t="n">
-        <v>520.2893470406002</v>
+        <v>321.1098614248266</v>
       </c>
       <c r="U37" t="n">
-        <v>520.2893470406002</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="V37" t="n">
-        <v>520.2893470406002</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="W37" t="n">
-        <v>230.8721770036396</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="X37" t="n">
-        <v>230.8721770036396</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="Y37" t="n">
-        <v>230.8721770036396</v>
+        <v>43.36919653809311</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1536.052658116077</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="C38" t="n">
-        <v>1536.052658116077</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="D38" t="n">
-        <v>1177.786959509327</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="E38" t="n">
-        <v>1177.786959509327</v>
+        <v>870.3861466242935</v>
       </c>
       <c r="F38" t="n">
-        <v>766.8010547197193</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G38" t="n">
-        <v>350.7700094231265</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H38" t="n">
         <v>43.36919653809313</v>
@@ -7204,22 +7204,22 @@
         <v>2036.325171642787</v>
       </c>
       <c r="T38" t="n">
-        <v>2036.325171642787</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="U38" t="n">
-        <v>2036.325171642787</v>
+        <v>1572.544009457212</v>
       </c>
       <c r="V38" t="n">
-        <v>1926.191990091889</v>
+        <v>1572.544009457212</v>
       </c>
       <c r="W38" t="n">
-        <v>1926.191990091889</v>
+        <v>1572.544009457212</v>
       </c>
       <c r="X38" t="n">
-        <v>1926.191990091889</v>
+        <v>1572.544009457212</v>
       </c>
       <c r="Y38" t="n">
-        <v>1536.052658116077</v>
+        <v>1572.544009457212</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>560.2603676655167</v>
+        <v>438.4138720102982</v>
       </c>
       <c r="C39" t="n">
-        <v>385.8073383843897</v>
+        <v>263.9608427291712</v>
       </c>
       <c r="D39" t="n">
-        <v>385.8073383843897</v>
+        <v>115.0264330679199</v>
       </c>
       <c r="E39" t="n">
-        <v>226.5698833789342</v>
+        <v>115.0264330679199</v>
       </c>
       <c r="F39" t="n">
-        <v>80.03532540581919</v>
+        <v>115.0264330679199</v>
       </c>
       <c r="G39" t="n">
-        <v>80.03532540581919</v>
+        <v>115.0264330679199</v>
       </c>
       <c r="H39" t="n">
-        <v>80.03532540581919</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I39" t="n">
         <v>43.36919653809313</v>
@@ -7277,28 +7277,28 @@
         <v>1766.227047333489</v>
       </c>
       <c r="R39" t="n">
-        <v>1734.238298972667</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S39" t="n">
-        <v>1693.363221462683</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T39" t="n">
-        <v>1693.363221462683</v>
+        <v>1571.516725807465</v>
       </c>
       <c r="U39" t="n">
-        <v>1465.261631595948</v>
+        <v>1343.415135940729</v>
       </c>
       <c r="V39" t="n">
-        <v>1230.109523364205</v>
+        <v>1108.263027708987</v>
       </c>
       <c r="W39" t="n">
-        <v>975.8721666360034</v>
+        <v>854.025670980785</v>
       </c>
       <c r="X39" t="n">
-        <v>768.0206664304706</v>
+        <v>646.1741707752522</v>
       </c>
       <c r="Y39" t="n">
-        <v>560.2603676655167</v>
+        <v>438.4138720102982</v>
       </c>
     </row>
     <row r="40">
@@ -7362,13 +7362,13 @@
         <v>520.2893470406002</v>
       </c>
       <c r="T40" t="n">
-        <v>520.2893470406002</v>
+        <v>296.6854897332238</v>
       </c>
       <c r="U40" t="n">
-        <v>332.7863665750538</v>
+        <v>296.6854897332238</v>
       </c>
       <c r="V40" t="n">
-        <v>332.7863665750538</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="W40" t="n">
         <v>43.36919653809313</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>949.3392845809428</v>
+        <v>1186.628457381848</v>
       </c>
       <c r="C41" t="n">
-        <v>949.3392845809428</v>
+        <v>817.6659404414364</v>
       </c>
       <c r="D41" t="n">
-        <v>949.3392845809428</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="E41" t="n">
-        <v>949.3392845809428</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="F41" t="n">
-        <v>538.3533797913353</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G41" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H41" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I41" t="n">
         <v>43.36919653809313</v>
@@ -7438,25 +7438,25 @@
         <v>2168.459826904656</v>
       </c>
       <c r="S41" t="n">
-        <v>2036.325171642787</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="T41" t="n">
-        <v>2036.325171642787</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="U41" t="n">
-        <v>1782.718007305297</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="V41" t="n">
-        <v>1726.078456620876</v>
+        <v>1837.396939561086</v>
       </c>
       <c r="W41" t="n">
-        <v>1726.078456620876</v>
+        <v>1484.628284290972</v>
       </c>
       <c r="X41" t="n">
-        <v>1726.078456620876</v>
+        <v>1484.628284290972</v>
       </c>
       <c r="Y41" t="n">
-        <v>1335.939124645065</v>
+        <v>1186.628457381848</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>809.4046422439259</v>
+        <v>498.3001248569661</v>
       </c>
       <c r="C42" t="n">
-        <v>634.9516129627989</v>
+        <v>323.847095575839</v>
       </c>
       <c r="D42" t="n">
-        <v>486.0172033015477</v>
+        <v>174.9126859145878</v>
       </c>
       <c r="E42" t="n">
-        <v>326.7797482960922</v>
+        <v>174.9126859145878</v>
       </c>
       <c r="F42" t="n">
-        <v>180.2451903229772</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="G42" t="n">
         <v>43.36919653809313</v>
@@ -7520,22 +7520,22 @@
         <v>1766.227047333489</v>
       </c>
       <c r="T42" t="n">
-        <v>1766.227047333489</v>
+        <v>1571.516725807465</v>
       </c>
       <c r="U42" t="n">
-        <v>1674.860944429471</v>
+        <v>1571.516725807465</v>
       </c>
       <c r="V42" t="n">
-        <v>1439.708836197728</v>
+        <v>1336.364617575722</v>
       </c>
       <c r="W42" t="n">
-        <v>1185.471479469527</v>
+        <v>1082.127260847521</v>
       </c>
       <c r="X42" t="n">
-        <v>977.6199792639939</v>
+        <v>874.275760641988</v>
       </c>
       <c r="Y42" t="n">
-        <v>977.6199792639939</v>
+        <v>666.5154618770341</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>321.1098614248266</v>
+        <v>341.398929532822</v>
       </c>
       <c r="C43" t="n">
-        <v>152.1736784969197</v>
+        <v>341.398929532822</v>
       </c>
       <c r="D43" t="n">
-        <v>152.1736784969197</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="E43" t="n">
-        <v>152.1736784969197</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="F43" t="n">
         <v>43.36919653809313</v>
@@ -7596,25 +7596,25 @@
         <v>520.2893470406002</v>
       </c>
       <c r="S43" t="n">
-        <v>321.1098614248266</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T43" t="n">
-        <v>321.1098614248266</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U43" t="n">
-        <v>321.1098614248266</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="V43" t="n">
-        <v>321.1098614248266</v>
+        <v>341.398929532822</v>
       </c>
       <c r="W43" t="n">
-        <v>321.1098614248266</v>
+        <v>341.398929532822</v>
       </c>
       <c r="X43" t="n">
-        <v>321.1098614248266</v>
+        <v>341.398929532822</v>
       </c>
       <c r="Y43" t="n">
-        <v>321.1098614248266</v>
+        <v>341.398929532822</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1615.005796072727</v>
+        <v>761.7559142127341</v>
       </c>
       <c r="C44" t="n">
-        <v>1615.005796072727</v>
+        <v>761.7559142127341</v>
       </c>
       <c r="D44" t="n">
-        <v>1256.740097465976</v>
+        <v>761.7559142127341</v>
       </c>
       <c r="E44" t="n">
-        <v>1256.740097465976</v>
+        <v>761.7559142127341</v>
       </c>
       <c r="F44" t="n">
-        <v>845.7541926763686</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="G44" t="n">
-        <v>429.7231473797759</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H44" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I44" t="n">
         <v>43.36919653809311</v>
@@ -7675,25 +7675,25 @@
         <v>2168.459826904656</v>
       </c>
       <c r="S44" t="n">
-        <v>2036.325171642786</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="T44" t="n">
-        <v>2036.325171642786</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="U44" t="n">
-        <v>2005.145128048538</v>
+        <v>1914.852662567165</v>
       </c>
       <c r="V44" t="n">
-        <v>2005.145128048538</v>
+        <v>1583.789775223594</v>
       </c>
       <c r="W44" t="n">
-        <v>2005.145128048538</v>
+        <v>1231.02111995348</v>
       </c>
       <c r="X44" t="n">
-        <v>2005.145128048538</v>
+        <v>857.5553616924001</v>
       </c>
       <c r="Y44" t="n">
-        <v>1615.005796072727</v>
+        <v>761.7559142127341</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>464.908856516254</v>
+        <v>444.5965764478304</v>
       </c>
       <c r="C45" t="n">
-        <v>464.908856516254</v>
+        <v>444.5965764478304</v>
       </c>
       <c r="D45" t="n">
-        <v>385.8073383843897</v>
+        <v>444.5965764478304</v>
       </c>
       <c r="E45" t="n">
-        <v>226.5698833789342</v>
+        <v>285.3591214423749</v>
       </c>
       <c r="F45" t="n">
-        <v>80.03532540581918</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="G45" t="n">
-        <v>80.03532540581918</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H45" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I45" t="n">
         <v>43.36919653809311</v>
@@ -7757,22 +7757,22 @@
         <v>1766.227047333489</v>
       </c>
       <c r="T45" t="n">
-        <v>1766.227047333489</v>
+        <v>1745.914767265065</v>
       </c>
       <c r="U45" t="n">
-        <v>1538.125457466753</v>
+        <v>1517.813177398329</v>
       </c>
       <c r="V45" t="n">
-        <v>1302.97334923501</v>
+        <v>1282.661069166587</v>
       </c>
       <c r="W45" t="n">
-        <v>1048.735992506809</v>
+        <v>1028.423712438385</v>
       </c>
       <c r="X45" t="n">
-        <v>840.8844923012759</v>
+        <v>820.5722122328523</v>
       </c>
       <c r="Y45" t="n">
-        <v>633.1241935363221</v>
+        <v>612.8119134678984</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>230.8721770036396</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="C46" t="n">
-        <v>230.8721770036396</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="D46" t="n">
-        <v>230.8721770036396</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="E46" t="n">
-        <v>190.2591440360035</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="F46" t="n">
         <v>43.36919653809311</v>
@@ -7842,16 +7842,16 @@
         <v>520.2893470406002</v>
       </c>
       <c r="V46" t="n">
-        <v>520.2893470406002</v>
+        <v>265.6048588347134</v>
       </c>
       <c r="W46" t="n">
-        <v>230.8721770036396</v>
+        <v>265.6048588347134</v>
       </c>
       <c r="X46" t="n">
-        <v>230.8721770036396</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="Y46" t="n">
-        <v>230.8721770036396</v>
+        <v>43.36919653809311</v>
       </c>
     </row>
   </sheetData>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>332.938834636356</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>363.4246355629722</v>
       </c>
       <c r="D2" t="n">
-        <v>304.8880345935584</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22603,19 +22603,19 @@
         <v>216.1119122710508</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2180195592479</v>
+        <v>201.4230125321233</v>
       </c>
       <c r="V2" t="n">
         <v>277.9572514430103</v>
       </c>
       <c r="W2" t="n">
-        <v>347.3927125093777</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>336.4429316289289</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22631,7 +22631,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>103.5856233751474</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22676,22 +22676,22 @@
         <v>92.6799817290989</v>
       </c>
       <c r="S3" t="n">
-        <v>111.9680509922885</v>
+        <v>106.0324861546552</v>
       </c>
       <c r="T3" t="n">
-        <v>146.9290208388017</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U3" t="n">
         <v>176.0902156279161</v>
       </c>
       <c r="V3" t="n">
-        <v>183.0055801223006</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>155.9779781763528</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>345.1637646527952</v>
+        <v>332.9388346363559</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22798,19 +22798,19 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.5725223992679</v>
+        <v>413.707320657778</v>
       </c>
       <c r="H5" t="n">
-        <v>321.7552365603931</v>
+        <v>323.1357392253592</v>
       </c>
       <c r="I5" t="n">
-        <v>143.7717713159392</v>
+        <v>148.9685811771479</v>
       </c>
       <c r="J5" t="n">
-        <v>34.19605933636038</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>17.14684397594775</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -22825,25 +22825,25 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1.810057396252972</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.46192228085542</v>
+        <v>50.01861771953256</v>
       </c>
       <c r="R5" t="n">
-        <v>106.8999125420449</v>
+        <v>115.3674336481769</v>
       </c>
       <c r="S5" t="n">
-        <v>169.5927926334236</v>
+        <v>172.6645079492214</v>
       </c>
       <c r="T5" t="n">
-        <v>215.5218328944231</v>
+        <v>214.2636560630156</v>
       </c>
       <c r="U5" t="n">
-        <v>177.7428339618397</v>
+        <v>201.4230125321232</v>
       </c>
       <c r="V5" t="n">
-        <v>254.2878567334075</v>
+        <v>277.9572514430103</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>312.7735369193261</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>122.9134919611911</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22874,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>71.60481065665647</v>
+        <v>95.2742053662592</v>
       </c>
       <c r="G6" t="n">
-        <v>71.7103254125917</v>
+        <v>86.6948868618878</v>
       </c>
       <c r="H6" t="n">
-        <v>103.294680046134</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
-        <v>67.64908349938912</v>
+        <v>70.13228042782632</v>
       </c>
       <c r="J6" t="n">
-        <v>39.37486489346175</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,25 +22907,25 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>21.81101977343823</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R6" t="n">
-        <v>14.73760091989288</v>
+        <v>92.6799817290989</v>
       </c>
       <c r="S6" t="n">
-        <v>154.4878321636994</v>
+        <v>155.8274931817798</v>
       </c>
       <c r="T6" t="n">
-        <v>196.4333198433488</v>
+        <v>152.864585676435</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8804776927571</v>
+        <v>225.8852226550407</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>178.2305814241922</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22956,49 +22956,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2148644222634</v>
+        <v>167.2753302804353</v>
       </c>
       <c r="H7" t="n">
-        <v>155.3268051656304</v>
+        <v>155.8644016137399</v>
       </c>
       <c r="I7" t="n">
-        <v>132.1105821187667</v>
+        <v>133.9289553808794</v>
       </c>
       <c r="J7" t="n">
-        <v>72.12409545038793</v>
+        <v>76.39903162313584</v>
       </c>
       <c r="K7" t="n">
-        <v>38.84281376529884</v>
+        <v>45.86784710562524</v>
       </c>
       <c r="L7" t="n">
-        <v>19.49755203998329</v>
+        <v>28.48717608127421</v>
       </c>
       <c r="M7" t="n">
-        <v>17.2662399038262</v>
+        <v>26.74453801706942</v>
       </c>
       <c r="N7" t="n">
-        <v>8.918792456364031</v>
+        <v>18.17171782551226</v>
       </c>
       <c r="O7" t="n">
-        <v>28.75622001580066</v>
+        <v>37.30279422357805</v>
       </c>
       <c r="P7" t="n">
-        <v>43.86043031148982</v>
+        <v>51.173501012562</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.51595910858246</v>
+        <v>91.57915019604307</v>
       </c>
       <c r="R7" t="n">
-        <v>142.3964416096969</v>
+        <v>145.11520646895</v>
       </c>
       <c r="S7" t="n">
-        <v>210.4910313761868</v>
+        <v>211.5447863772357</v>
       </c>
       <c r="T7" t="n">
-        <v>224.6294619736288</v>
+        <v>224.8878160949084</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2766958145166</v>
+        <v>286.2799939522351</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>270.6211815385569</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>272.6079424819054</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>262.0180923315808</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.3887043444878</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H8" t="n">
-        <v>319.8727099068761</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I8" t="n">
-        <v>136.685125759028</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J8" t="n">
-        <v>18.59473170946464</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.61164031771682</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>95.3531516584621</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S8" t="n">
-        <v>165.4040387101212</v>
+        <v>167.1010256612668</v>
       </c>
       <c r="T8" t="n">
-        <v>214.717169359623</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U8" t="n">
-        <v>139.079870129261</v>
+        <v>251.1984878605957</v>
       </c>
       <c r="V8" t="n">
-        <v>229.0034274321021</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>291.2752525677951</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.1252785311299</v>
+        <v>293.5729893669514</v>
       </c>
     </row>
     <row r="9">
@@ -23111,19 +23111,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>52.40426310428168</v>
       </c>
       <c r="G9" t="n">
-        <v>136.3194191323308</v>
+        <v>43.69431484884211</v>
       </c>
       <c r="H9" t="n">
-        <v>102.3448132540521</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I9" t="n">
-        <v>64.26286446312977</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J9" t="n">
-        <v>30.08282103867671</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.095592888813</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S9" t="n">
-        <v>152.6609993460486</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T9" t="n">
-        <v>196.0368949650912</v>
+        <v>103.5325490100188</v>
       </c>
       <c r="U9" t="n">
-        <v>113.7613470855985</v>
+        <v>158.6000800492519</v>
       </c>
       <c r="V9" t="n">
-        <v>120.6879270245016</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>139.5823230359959</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>116.2807129412661</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23193,49 +23193,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.1324099710516</v>
+        <v>167.1658146852775</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9683326469616</v>
+        <v>154.8907084131551</v>
       </c>
       <c r="I10" t="n">
-        <v>129.630951895051</v>
+        <v>130.6355227555885</v>
       </c>
       <c r="J10" t="n">
-        <v>66.29456574971167</v>
+        <v>68.65627904547948</v>
       </c>
       <c r="K10" t="n">
-        <v>29.26310570632462</v>
+        <v>33.14412614092828</v>
       </c>
       <c r="L10" t="n">
-        <v>7.238823902544752</v>
+        <v>12.20519387026839</v>
       </c>
       <c r="M10" t="n">
-        <v>4.341129883412066</v>
+        <v>9.577470677924651</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.412844977410202</v>
       </c>
       <c r="O10" t="n">
-        <v>17.10165812996878</v>
+        <v>21.823262646183</v>
       </c>
       <c r="P10" t="n">
-        <v>33.88793923037925</v>
+        <v>37.92808757638606</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.61152319847201</v>
+        <v>82.40871249605685</v>
       </c>
       <c r="R10" t="n">
-        <v>138.6889896488451</v>
+        <v>140.1909870721275</v>
       </c>
       <c r="S10" t="n">
-        <v>209.0540751673406</v>
+        <v>209.6362282325312</v>
       </c>
       <c r="T10" t="n">
-        <v>224.2771565911783</v>
+        <v>224.4198858246887</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2721982989959</v>
+        <v>286.2740203743174</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>294.6430235040499</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>219.3504585753915</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>413.097833230058</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T11" t="n">
-        <v>25.91829388988688</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U11" t="n">
-        <v>63.64367339871043</v>
+        <v>63.64367339871046</v>
       </c>
       <c r="V11" t="n">
-        <v>162.5797212940404</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23342,16 +23342,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>100.8417573507397</v>
@@ -23393,19 +23393,19 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U12" t="n">
-        <v>38.33818124377103</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V12" t="n">
-        <v>45.27499998310537</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>64.16939599459971</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>40.60044802738295</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>64.25654488144926</v>
       </c>
     </row>
     <row r="13">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>294.6430235040495</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046873</v>
       </c>
       <c r="D14" t="n">
-        <v>189.5105044445885</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059416</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23512,7 +23512,7 @@
         <v>413.097833230058</v>
       </c>
       <c r="H14" t="n">
-        <v>129.3682389399025</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I14" t="n">
         <v>125.4713171199747</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>158.7758131900531</v>
@@ -23551,10 +23551,10 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U14" t="n">
-        <v>63.64367339871046</v>
+        <v>63.64367339871012</v>
       </c>
       <c r="V14" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23573,19 +23573,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>1.36064647377259</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.1637893657753</v>
@@ -23594,10 +23594,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I15" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J15" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S15" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T15" t="n">
-        <v>130.6086781203675</v>
+        <v>7.884010625681015</v>
       </c>
       <c r="U15" t="n">
         <v>225.8637684100909</v>
@@ -23636,10 +23636,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945994</v>
       </c>
       <c r="X15" t="n">
-        <v>18.24739803715761</v>
+        <v>18.24739803715727</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23664,22 +23664,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>93.2051017684968</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H16" t="n">
-        <v>153.4336708318196</v>
+        <v>101.2177245773847</v>
       </c>
       <c r="I16" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J16" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825412</v>
       </c>
       <c r="K16" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,10 +23694,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.68604055159726</v>
+        <v>68.6860405515972</v>
       </c>
       <c r="R16" t="n">
         <v>132.8223696106904</v>
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>376.904181473397</v>
+        <v>32.25556922959856</v>
       </c>
       <c r="H17" t="n">
-        <v>311.5737486373496</v>
+        <v>310.0661072569078</v>
       </c>
       <c r="I17" t="n">
-        <v>105.4442416537264</v>
+        <v>88.80398853836684</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>44.45022224585207</v>
+        <v>35.20287667141781</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>143.5836595683025</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.5254541783477</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1159255221454</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>11.60479741564063</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23816,22 +23816,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.8858455217234</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>98.15740496213245</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>49.3350011154598</v>
+        <v>46.62311178695214</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>55.17599625828863</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>144.6075596928789</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>194.2892890521601</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>53.34147284393393</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>155.3005908731951</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23898,22 +23898,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>25.90479092258551</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7689164205999</v>
+        <v>166.7028819012924</v>
       </c>
       <c r="H19" t="n">
-        <v>151.3619220235667</v>
+        <v>150.7748151155418</v>
       </c>
       <c r="I19" t="n">
-        <v>118.6997094869194</v>
+        <v>116.7138713971992</v>
       </c>
       <c r="J19" t="n">
-        <v>40.59557173277125</v>
+        <v>35.92693121773057</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.17389507836937</v>
+        <v>43.64440455708356</v>
       </c>
       <c r="R19" t="n">
-        <v>122.3449978258044</v>
+        <v>119.3758457122141</v>
       </c>
       <c r="S19" t="n">
-        <v>202.7193739290129</v>
+        <v>201.5685723516266</v>
       </c>
       <c r="T19" t="n">
-        <v>222.7240477847025</v>
+        <v>222.4419002931159</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2523713780622</v>
+        <v>286.2487694951909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>74.73907354558077</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>310.0144270722714</v>
       </c>
       <c r="C20" t="n">
-        <v>27.63672046923517</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>214.3661269848625</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>74.9421865254908</v>
+        <v>412.4311451939966</v>
       </c>
       <c r="H20" t="n">
-        <v>311.5737486373496</v>
+        <v>310.0661072569078</v>
       </c>
       <c r="I20" t="n">
-        <v>105.4442416537264</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>143.5836595683025</v>
       </c>
       <c r="T20" t="n">
-        <v>211.1698774804723</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1159255221454</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>6.062362691655551</v>
       </c>
     </row>
     <row r="21">
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>98.15740496213245</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>49.3350011154598</v>
+        <v>46.62311178695214</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>55.17599625828863</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>144.6075596928789</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.8403006767461</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>183.1735517192664</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>128.6359717724797</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>81.12858153365022</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7689164205999</v>
+        <v>166.7028819012924</v>
       </c>
       <c r="H22" t="n">
-        <v>151.3619220235667</v>
+        <v>150.7748151155418</v>
       </c>
       <c r="I22" t="n">
-        <v>118.6997094869194</v>
+        <v>116.7138713971992</v>
       </c>
       <c r="J22" t="n">
-        <v>40.59557173277125</v>
+        <v>35.92693121773057</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.17389507836937</v>
+        <v>43.64440455708356</v>
       </c>
       <c r="R22" t="n">
-        <v>122.3449978258044</v>
+        <v>119.3758457122141</v>
       </c>
       <c r="S22" t="n">
-        <v>202.7193739290129</v>
+        <v>201.5685723516266</v>
       </c>
       <c r="T22" t="n">
-        <v>222.7240477847025</v>
+        <v>222.4419002931159</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2523713780622</v>
+        <v>286.2487694951909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>74.73907354558077</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H23" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I23" t="n">
-        <v>49.85235631624407</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>333.642441491048</v>
       </c>
     </row>
     <row r="24">
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>13.22994759380546</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.809145232212103</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>36.2994675790488</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24341,10 +24341,10 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24420,13 +24420,13 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>129.9464029350749</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>100.6071071548257</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,13 +24448,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>254.2641220689815</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>65.88427936983867</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T26" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>49.19507802460095</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>94.50081326185511</v>
@@ -24572,10 +24572,10 @@
         <v>31.66886087721423</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24587,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>195.9816154770112</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4515011109318</v>
@@ -24654,10 +24654,10 @@
         <v>197.1876907596158</v>
       </c>
       <c r="T28" t="n">
-        <v>43.25339077796426</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2350578157167</v>
+        <v>212.5007423522667</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T29" t="n">
-        <v>42.08313741825603</v>
+        <v>44.50114127348039</v>
       </c>
       <c r="U29" t="n">
         <v>251.0710926941158</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>78.15324778116934</v>
+        <v>99.63522928412745</v>
       </c>
       <c r="G30" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>36.2994675790488</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24812,7 +24812,7 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.5398113612452</v>
@@ -24891,13 +24891,13 @@
         <v>197.1876907596158</v>
       </c>
       <c r="T31" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2350578157167</v>
+        <v>201.9034286634691</v>
       </c>
       <c r="V31" t="n">
-        <v>71.84170499584644</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>366.3536163019559</v>
+        <v>193.9371536220016</v>
       </c>
       <c r="H32" t="n">
         <v>304.326804756183</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T32" t="n">
         <v>208.0722578696039</v>
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>56.93080351271492</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>29.44843182714375</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>36.2994675790488</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T33" t="n">
         <v>192.7632183107638</v>
@@ -25061,10 +25061,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25077,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25128,10 +25128,10 @@
         <v>197.1876907596158</v>
       </c>
       <c r="T34" t="n">
-        <v>221.3678187343026</v>
+        <v>65.07916385366079</v>
       </c>
       <c r="U34" t="n">
-        <v>39.79376420727189</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>201.7017751748841</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.8707348436268</v>
+        <v>369.835395888391</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T35" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25235,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25244,10 +25244,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>49.31847587081424</v>
       </c>
       <c r="G36" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>94.50081326185511</v>
@@ -25283,7 +25283,7 @@
         <v>31.66886087721423</v>
       </c>
       <c r="S36" t="n">
-        <v>12.42141906841913</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25292,16 +25292,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>106.2270600086094</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4515011109318</v>
@@ -25362,19 +25362,19 @@
         <v>108.0728512656385</v>
       </c>
       <c r="S37" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2350578157167</v>
+        <v>11.27179957785052</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>69.52792753115318</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I38" t="n">
         <v>78.1636065770829</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>218.7204087347455</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25475,22 +25475,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>135.5072338470352</v>
       </c>
       <c r="H39" t="n">
-        <v>94.50081326185511</v>
+        <v>23.56014909732659</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>36.2994675790488</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S39" t="n">
-        <v>97.10868715841588</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T39" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25602,16 +25602,16 @@
         <v>197.1876907596158</v>
       </c>
       <c r="T40" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>100.6071071548257</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>1.354513060648657</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T41" t="n">
         <v>208.0722578696039</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V41" t="n">
-        <v>271.6791032925588</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>91.21811001602146</v>
       </c>
     </row>
     <row r="42">
@@ -25715,13 +25715,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>14.84115791065418</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H42" t="n">
         <v>94.50081326185511</v>
@@ -25760,10 +25760,10 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T42" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>135.3681320930906</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25788,16 +25788,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>37.70461088369296</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4515011109318</v>
@@ -25836,7 +25836,7 @@
         <v>108.0728512656385</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T43" t="n">
         <v>221.3678187343026</v>
@@ -25845,7 +25845,7 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>75.03612999112755</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25870,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T44" t="n">
         <v>208.0722578696039</v>
       </c>
       <c r="U44" t="n">
-        <v>220.2028495358101</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>291.3964856511842</v>
       </c>
     </row>
     <row r="45">
@@ -25949,7 +25949,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>69.13456261409306</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25961,10 +25961,10 @@
         <v>135.5072338470352</v>
       </c>
       <c r="H45" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>36.2994675790488</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,7 +25997,7 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T45" t="n">
-        <v>192.7632183107638</v>
+        <v>172.6540610430243</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>106.2270600086094</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4515011109318</v>
@@ -26082,13 +26082,13 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>5.696349715383121</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>341002.5237624291</v>
+        <v>314318.0455466998</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>379382.0342027748</v>
+        <v>362616.6230072703</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>441595.0580613399</v>
+        <v>441595.0580613402</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>544392.7033332875</v>
+        <v>573513.5818400494</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>544392.7033332874</v>
+        <v>573513.5818400494</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>684371.19891354</v>
+        <v>684371.1989135402</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>684371.1989135405</v>
+        <v>684371.1989135402</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>684371.1989135405</v>
+        <v>684371.1989135403</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>684371.1989135403</v>
+        <v>684371.1989135405</v>
       </c>
     </row>
     <row r="16">
@@ -26316,22 +26316,22 @@
         <v>100818.9957413941</v>
       </c>
       <c r="C2" t="n">
-        <v>109378.1679992695</v>
+        <v>100818.9957413942</v>
       </c>
       <c r="D2" t="n">
-        <v>121688.5770084371</v>
+        <v>116310.9922853508</v>
       </c>
       <c r="E2" t="n">
         <v>141643.6978687317</v>
       </c>
       <c r="F2" t="n">
-        <v>141643.6978687317</v>
+        <v>141643.6978687318</v>
       </c>
       <c r="G2" t="n">
-        <v>174616.527484262</v>
+        <v>183957.1866279403</v>
       </c>
       <c r="H2" t="n">
-        <v>174616.527484262</v>
+        <v>183957.1866279403</v>
       </c>
       <c r="I2" t="n">
         <v>219515.2902175505</v>
@@ -26343,13 +26343,13 @@
         <v>219515.2902175505</v>
       </c>
       <c r="L2" t="n">
-        <v>219515.2902175505</v>
+        <v>219515.2902175506</v>
       </c>
       <c r="M2" t="n">
         <v>219515.2902175505</v>
       </c>
       <c r="N2" t="n">
-        <v>219515.2902175506</v>
+        <v>219515.2902175505</v>
       </c>
       <c r="O2" t="n">
         <v>219515.2902175505</v>
@@ -26368,43 +26368,43 @@
         <v>399106.8526518422</v>
       </c>
       <c r="C3" t="n">
-        <v>38180.34408023355</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>51164.61695028653</v>
+        <v>65327.8903793811</v>
       </c>
       <c r="E3" t="n">
-        <v>80646.21400928599</v>
+        <v>101335.4572062673</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.695895773285884e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>141609.5458603385</v>
+        <v>181739.8658516843</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>186874.998309538</v>
+        <v>147997.8543656429</v>
       </c>
       <c r="J3" t="n">
-        <v>13028.56481860508</v>
+        <v>13028.56481860496</v>
       </c>
       <c r="K3" t="n">
-        <v>6091.744777620991</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9781.526363727047</v>
+        <v>10849.99655702621</v>
       </c>
       <c r="M3" t="n">
-        <v>18793.20307042404</v>
+        <v>23639.6504015541</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>36124.26218278078</v>
+        <v>46361.41245424624</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>30.96378040239005</v>
       </c>
       <c r="C4" t="n">
-        <v>49.92675977318713</v>
+        <v>30.96378040239008</v>
       </c>
       <c r="D4" t="n">
-        <v>81.37067654131212</v>
+        <v>67.14558386063672</v>
       </c>
       <c r="E4" t="n">
         <v>137.800118072334</v>
       </c>
       <c r="F4" t="n">
-        <v>137.800118072334</v>
+        <v>137.8001180723343</v>
       </c>
       <c r="G4" t="n">
-        <v>240.9290091102027</v>
+        <v>270.7602176271811</v>
       </c>
       <c r="H4" t="n">
-        <v>240.9290091102027</v>
+        <v>270.7602176271811</v>
       </c>
       <c r="I4" t="n">
         <v>384.3219252469141</v>
@@ -26472,28 +26472,28 @@
         <v>45306.68319048216</v>
       </c>
       <c r="C5" t="n">
-        <v>47476.75964516138</v>
+        <v>45306.68319048216</v>
       </c>
       <c r="D5" t="n">
-        <v>50823.37311172271</v>
+        <v>49237.11966583622</v>
       </c>
       <c r="E5" t="n">
         <v>23358.20041161357</v>
       </c>
       <c r="F5" t="n">
-        <v>23358.20041161357</v>
+        <v>23358.20041161359</v>
       </c>
       <c r="G5" t="n">
-        <v>35301.90916755483</v>
+        <v>38686.60227808903</v>
       </c>
       <c r="H5" t="n">
-        <v>35301.90916755483</v>
+        <v>38686.60227808903</v>
       </c>
       <c r="I5" t="n">
         <v>51571.48185587229</v>
       </c>
       <c r="J5" t="n">
-        <v>51571.48185587231</v>
+        <v>51571.48185587229</v>
       </c>
       <c r="K5" t="n">
         <v>51571.48185587229</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-358221.0189666812</v>
+        <v>-345085.0553898675</v>
       </c>
       <c r="C6" t="n">
-        <v>9579.103149804319</v>
+        <v>54021.79726197477</v>
       </c>
       <c r="D6" t="n">
-        <v>6251.323612011041</v>
+        <v>310.4145391730408</v>
       </c>
       <c r="E6" t="n">
-        <v>25307.42131072515</v>
+        <v>15592.83393087498</v>
       </c>
       <c r="F6" t="n">
-        <v>105953.6353200111</v>
+        <v>116928.2911371421</v>
       </c>
       <c r="G6" t="n">
-        <v>-12790.34035909794</v>
+        <v>-37710.54504630944</v>
       </c>
       <c r="H6" t="n">
-        <v>128819.2055012406</v>
+        <v>144029.3208053748</v>
       </c>
       <c r="I6" t="n">
-        <v>-26928.89198926964</v>
+        <v>18800.29405917209</v>
       </c>
       <c r="J6" t="n">
-        <v>146917.5415016633</v>
+        <v>153769.5836062101</v>
       </c>
       <c r="K6" t="n">
-        <v>153854.3615426474</v>
+        <v>166798.148424815</v>
       </c>
       <c r="L6" t="n">
-        <v>150164.5799565413</v>
+        <v>155948.1518677888</v>
       </c>
       <c r="M6" t="n">
-        <v>141152.9032498443</v>
+        <v>143158.4980232609</v>
       </c>
       <c r="N6" t="n">
-        <v>159946.1063202684</v>
+        <v>166798.148424815</v>
       </c>
       <c r="O6" t="n">
-        <v>123821.8441374876</v>
+        <v>120436.7359705688</v>
       </c>
       <c r="P6" t="n">
-        <v>159946.1063202683</v>
+        <v>166798.148424815</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>396.859943267568</v>
       </c>
       <c r="C3" t="n">
-        <v>430.3910100719429</v>
+        <v>396.859943267568</v>
       </c>
       <c r="D3" t="n">
-        <v>476.1157511985022</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="E3" t="n">
         <v>548.4699409129046</v>
       </c>
       <c r="F3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="G3" t="n">
-        <v>677.6894473581224</v>
+        <v>714.3085898831939</v>
       </c>
       <c r="H3" t="n">
-        <v>677.6894473581224</v>
+        <v>714.3085898831939</v>
       </c>
       <c r="I3" t="n">
         <v>853.7106645376848</v>
@@ -26792,28 +26792,28 @@
         <v>49.79500702712463</v>
       </c>
       <c r="C4" t="n">
-        <v>73.46440173672741</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="D4" t="n">
-        <v>112.1126601249237</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="E4" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="F4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="G4" t="n">
-        <v>337.6361713017724</v>
+        <v>380.175575964398</v>
       </c>
       <c r="H4" t="n">
-        <v>337.6361713017724</v>
+        <v>380.175575964398</v>
       </c>
       <c r="I4" t="n">
+        <v>542.1149567261639</v>
+      </c>
+      <c r="J4" t="n">
         <v>542.1149567261638</v>
-      </c>
-      <c r="J4" t="n">
-        <v>542.1149567261641</v>
       </c>
       <c r="K4" t="n">
         <v>542.1149567261639</v>
@@ -26962,25 +26962,25 @@
         <v>396.859943267568</v>
       </c>
       <c r="C3" t="n">
-        <v>33.53106680437492</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>45.72474112655925</v>
+        <v>60.73137549659748</v>
       </c>
       <c r="E3" t="n">
-        <v>72.35418971440237</v>
+        <v>90.87862214873905</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>129.2195064452178</v>
+        <v>165.838648970289</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>176.0212171795624</v>
+        <v>139.4020746544909</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,43 +27014,43 @@
         <v>49.79500702712463</v>
       </c>
       <c r="C4" t="n">
-        <v>23.66939470960278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>38.6482583881963</v>
+        <v>42.86994226197751</v>
       </c>
       <c r="E4" t="n">
-        <v>75.41292704139619</v>
+        <v>94.86063787721767</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>150.1105841354525</v>
+        <v>192.6499887980778</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>204.4787854243914</v>
+        <v>161.9393807617658</v>
       </c>
       <c r="J4" t="n">
-        <v>49.79500702712494</v>
+        <v>49.79500702712448</v>
       </c>
       <c r="K4" t="n">
-        <v>23.66939470960256</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>38.64825838819652</v>
+        <v>42.86994226197774</v>
       </c>
       <c r="M4" t="n">
-        <v>75.41292704139596</v>
+        <v>94.86063787721744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>150.1105841354525</v>
+        <v>192.6499887980779</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27260,19 +27260,19 @@
         <v>49.79500702712463</v>
       </c>
       <c r="K4" t="n">
-        <v>23.66939470960278</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>38.6482583881963</v>
+        <v>42.86994226197751</v>
       </c>
       <c r="M4" t="n">
-        <v>75.41292704139619</v>
+        <v>94.86063787721767</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>150.1105841354525</v>
+        <v>192.6499887980778</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31135,7 +31135,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>157.3072689909255</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M3" t="n">
         <v>191.9290409491429</v>
@@ -31147,7 +31147,7 @@
         <v>192.3912514715691</v>
       </c>
       <c r="P3" t="n">
-        <v>163.0046057545602</v>
+        <v>134.9670493543445</v>
       </c>
       <c r="Q3" t="n">
         <v>108.96426215905</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.730215115867106</v>
+        <v>1.595416857357056</v>
       </c>
       <c r="H5" t="n">
-        <v>17.719565555374</v>
+        <v>16.33906289040796</v>
       </c>
       <c r="I5" t="n">
-        <v>66.70411825446666</v>
+        <v>61.50730839325797</v>
       </c>
       <c r="J5" t="n">
-        <v>146.8498451903259</v>
+        <v>135.4090114971086</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>202.9430070690328</v>
       </c>
       <c r="L5" t="n">
-        <v>273.0409218971986</v>
+        <v>251.7687457173739</v>
       </c>
       <c r="M5" t="n">
-        <v>303.8106349640001</v>
+        <v>280.1412402543974</v>
       </c>
       <c r="N5" t="n">
-        <v>302.8774653333184</v>
+        <v>279.2080706237156</v>
       </c>
       <c r="O5" t="n">
-        <v>291.5217821035541</v>
+        <v>268.8097920250189</v>
       </c>
       <c r="P5" t="n">
-        <v>248.8070964305848</v>
+        <v>229.4229383590166</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.8437675935941</v>
+        <v>172.2870721549169</v>
       </c>
       <c r="R5" t="n">
-        <v>108.6856252720872</v>
+        <v>100.2181041659553</v>
       </c>
       <c r="S5" t="n">
-        <v>39.42727695282172</v>
+        <v>36.35556163702395</v>
       </c>
       <c r="T5" t="n">
-        <v>7.57401666970826</v>
+        <v>6.983937293080517</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1384172092693684</v>
+        <v>0.1276333485885645</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9257467009094621</v>
+        <v>0.8536232741981653</v>
       </c>
       <c r="H6" t="n">
-        <v>8.940764190362438</v>
+        <v>8.244203727124386</v>
       </c>
       <c r="I6" t="n">
-        <v>31.87329650061087</v>
+        <v>29.39009957217367</v>
       </c>
       <c r="J6" t="n">
-        <v>87.46276177320495</v>
+        <v>80.64867960308193</v>
       </c>
       <c r="K6" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>201.0047825812409</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M6" t="n">
-        <v>215.5984356587457</v>
+        <v>191.929040949143</v>
       </c>
       <c r="N6" t="n">
-        <v>204.8061138200607</v>
+        <v>181.136719110458</v>
       </c>
       <c r="O6" t="n">
-        <v>181.3037769266046</v>
+        <v>164.3536950713535</v>
       </c>
       <c r="P6" t="n">
-        <v>176.7770169482288</v>
+        <v>163.0046057545602</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.1707543125833</v>
+        <v>108.96426215905</v>
       </c>
       <c r="R6" t="n">
-        <v>57.47750130734365</v>
+        <v>52.99952223486505</v>
       </c>
       <c r="S6" t="n">
-        <v>17.19533894013846</v>
+        <v>15.85567792205802</v>
       </c>
       <c r="T6" t="n">
-        <v>3.731408851472787</v>
+        <v>3.440700828895235</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0609043882177278</v>
+        <v>0.05615942593408984</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7761149361953068</v>
+        <v>0.7156490780234833</v>
       </c>
       <c r="H7" t="n">
-        <v>6.900367341809188</v>
+        <v>6.362770893699701</v>
       </c>
       <c r="I7" t="n">
-        <v>23.3398928084916</v>
+        <v>21.52151954637894</v>
       </c>
       <c r="J7" t="n">
-        <v>54.87132598900818</v>
+        <v>50.59638981626026</v>
       </c>
       <c r="K7" t="n">
-        <v>90.17044440523654</v>
+        <v>83.14541106491014</v>
       </c>
       <c r="L7" t="n">
-        <v>115.387124241255</v>
+        <v>106.3975001999641</v>
       </c>
       <c r="M7" t="n">
-        <v>121.6595440437789</v>
+        <v>112.1812459305356</v>
       </c>
       <c r="N7" t="n">
-        <v>118.7667520088692</v>
+        <v>109.5138266397209</v>
       </c>
       <c r="O7" t="n">
-        <v>109.7003184360421</v>
+        <v>101.1537442282647</v>
       </c>
       <c r="P7" t="n">
-        <v>93.86757373765779</v>
+        <v>86.55450303658561</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.98904252086338</v>
+        <v>59.92585143340277</v>
       </c>
       <c r="R7" t="n">
-        <v>34.89694976747261</v>
+        <v>32.17818490821952</v>
       </c>
       <c r="S7" t="n">
-        <v>13.52556666078548</v>
+        <v>12.47181165973652</v>
       </c>
       <c r="T7" t="n">
-        <v>3.316127454652674</v>
+        <v>3.057773333373064</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04233354197428951</v>
+        <v>0.0390354042558264</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.914033170647244</v>
+        <v>1.839563090509207</v>
       </c>
       <c r="H8" t="n">
-        <v>19.60209220889109</v>
+        <v>18.83942550067742</v>
       </c>
       <c r="I8" t="n">
-        <v>73.79076381137793</v>
+        <v>70.91975604685626</v>
       </c>
       <c r="J8" t="n">
-        <v>162.4511728172216</v>
+        <v>156.1306178531059</v>
       </c>
       <c r="K8" t="n">
-        <v>243.4721969307195</v>
+        <v>233.9993234743607</v>
       </c>
       <c r="L8" t="n">
-        <v>302.0487895769152</v>
+        <v>290.2968524055319</v>
       </c>
       <c r="M8" t="n">
-        <v>336.087476975413</v>
+        <v>323.011182516375</v>
       </c>
       <c r="N8" t="n">
-        <v>341.5257237215146</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O8" t="n">
-        <v>322.493056380891</v>
+        <v>309.9456856660333</v>
       </c>
       <c r="P8" t="n">
-        <v>275.2403624805372</v>
+        <v>264.5314718690873</v>
       </c>
       <c r="Q8" t="n">
-        <v>206.6940495567327</v>
+        <v>198.6521186902262</v>
       </c>
       <c r="R8" t="n">
-        <v>120.23238615567</v>
+        <v>115.5544549841991</v>
       </c>
       <c r="S8" t="n">
-        <v>43.61603087612411</v>
+        <v>41.91904392497859</v>
       </c>
       <c r="T8" t="n">
-        <v>8.378680204508314</v>
+        <v>8.052687428704056</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1531226536517795</v>
+        <v>0.1471650472407365</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.024098030879797</v>
+        <v>0.9842530252663183</v>
       </c>
       <c r="H9" t="n">
-        <v>9.890630982444359</v>
+        <v>9.505812112440497</v>
       </c>
       <c r="I9" t="n">
-        <v>35.25951553687022</v>
+        <v>33.88765898395</v>
       </c>
       <c r="J9" t="n">
-        <v>96.75480562798998</v>
+        <v>92.99032639149897</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>158.9352790843423</v>
       </c>
       <c r="L9" t="n">
-        <v>222.3595307837911</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M9" t="n">
-        <v>254.246694046942</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N9" t="n">
-        <v>243.454372208257</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O9" t="n">
-        <v>243.6589731628788</v>
+        <v>173.959796357658</v>
       </c>
       <c r="P9" t="n">
-        <v>168.8020434923345</v>
+        <v>187.9491588335306</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.7252153102001</v>
+        <v>125.6390352953988</v>
       </c>
       <c r="R9" t="n">
-        <v>63.58391107515094</v>
+        <v>61.11002555118424</v>
       </c>
       <c r="S9" t="n">
-        <v>19.0221717577892</v>
+        <v>18.28206825439849</v>
       </c>
       <c r="T9" t="n">
-        <v>4.127833729730409</v>
+        <v>3.967230395700641</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06737487045261827</v>
+        <v>0.06475348850436308</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8585693874071351</v>
+        <v>0.8251646731812819</v>
       </c>
       <c r="H10" t="n">
-        <v>7.633462371674351</v>
+        <v>7.336464094284494</v>
       </c>
       <c r="I10" t="n">
-        <v>25.8195230322073</v>
+        <v>24.81495217166983</v>
       </c>
       <c r="J10" t="n">
-        <v>60.70085568968445</v>
+        <v>58.33914239391663</v>
       </c>
       <c r="K10" t="n">
-        <v>99.75015246421076</v>
+        <v>95.8691320296071</v>
       </c>
       <c r="L10" t="n">
-        <v>127.6458523786935</v>
+        <v>122.6794824109699</v>
       </c>
       <c r="M10" t="n">
-        <v>134.584654064193</v>
+        <v>129.3483132696804</v>
       </c>
       <c r="N10" t="n">
-        <v>131.3845318020392</v>
+        <v>126.272699487823</v>
       </c>
       <c r="O10" t="n">
-        <v>121.354880321874</v>
+        <v>116.6332758056598</v>
       </c>
       <c r="P10" t="n">
-        <v>103.8400648187684</v>
+        <v>99.79991647276155</v>
       </c>
       <c r="Q10" t="n">
-        <v>71.89347843097383</v>
+        <v>69.09628913338899</v>
       </c>
       <c r="R10" t="n">
-        <v>38.60440172832445</v>
+        <v>37.102404305042</v>
       </c>
       <c r="S10" t="n">
-        <v>14.96252286963161</v>
+        <v>14.38036980444106</v>
       </c>
       <c r="T10" t="n">
-        <v>3.668432837103212</v>
+        <v>3.52570360359275</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04683105749493469</v>
+        <v>0.04500898217352452</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H14" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I14" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J14" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K14" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L14" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M14" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N14" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O14" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P14" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q14" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R14" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S14" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T14" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H15" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I15" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J15" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K15" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L15" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M15" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N15" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O15" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P15" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R15" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S15" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T15" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H16" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I16" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J16" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K16" t="n">
         <v>114.9089482765069</v>
@@ -32165,31 +32165,31 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M16" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N16" t="n">
         <v>151.3507297604415</v>
       </c>
       <c r="O16" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P16" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R16" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S16" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T16" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.724379687871846</v>
+        <v>2.871592321138466</v>
       </c>
       <c r="H17" t="n">
-        <v>27.90105347841756</v>
+        <v>29.40869485885932</v>
       </c>
       <c r="I17" t="n">
-        <v>105.0316479166795</v>
+        <v>110.7070629606908</v>
       </c>
       <c r="J17" t="n">
-        <v>231.2283205335134</v>
+        <v>243.7228087662261</v>
       </c>
       <c r="K17" t="n">
-        <v>346.5513127211287</v>
+        <v>365.2773117200174</v>
       </c>
       <c r="L17" t="n">
-        <v>429.9275475938368</v>
+        <v>453.1588052180588</v>
       </c>
       <c r="M17" t="n">
-        <v>478.3772348680278</v>
+        <v>504.226485159105</v>
       </c>
       <c r="N17" t="n">
-        <v>486.1178786561937</v>
+        <v>512.3853968415398</v>
       </c>
       <c r="O17" t="n">
-        <v>459.027328134918</v>
+        <v>483.831000698219</v>
       </c>
       <c r="P17" t="n">
-        <v>391.7692045905817</v>
+        <v>412.9385652701131</v>
       </c>
       <c r="Q17" t="n">
-        <v>294.2023570186711</v>
+        <v>310.0996652693417</v>
       </c>
       <c r="R17" t="n">
-        <v>171.13531556828</v>
+        <v>180.3826611427143</v>
       </c>
       <c r="S17" t="n">
-        <v>62.08180213737977</v>
+        <v>65.43641001794286</v>
       </c>
       <c r="T17" t="n">
-        <v>11.92597208365902</v>
+        <v>12.57039538578364</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2179503750297477</v>
+        <v>0.2297273856910772</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.457671641487282</v>
+        <v>1.536437344277059</v>
       </c>
       <c r="H18" t="n">
-        <v>14.07803927436402</v>
+        <v>14.83875014078107</v>
       </c>
       <c r="I18" t="n">
-        <v>50.1873788845402</v>
+        <v>52.89926821304786</v>
       </c>
       <c r="J18" t="n">
-        <v>137.7180036371822</v>
+        <v>145.1596352327725</v>
       </c>
       <c r="K18" t="n">
-        <v>235.3820036168301</v>
+        <v>248.1009372993354</v>
       </c>
       <c r="L18" t="n">
-        <v>316.5001518062627</v>
+        <v>333.6023277562974</v>
       </c>
       <c r="M18" t="n">
-        <v>369.3407488101766</v>
+        <v>389.2981814863406</v>
       </c>
       <c r="N18" t="n">
-        <v>379.116099423484</v>
+        <v>399.6017459573917</v>
       </c>
       <c r="O18" t="n">
-        <v>346.8171646305289</v>
+        <v>365.5575290131474</v>
       </c>
       <c r="P18" t="n">
-        <v>278.351350557339</v>
+        <v>293.3921451540991</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.0705063765169</v>
+        <v>196.1248792449102</v>
       </c>
       <c r="R18" t="n">
-        <v>90.50350770567532</v>
+        <v>95.39389055081601</v>
       </c>
       <c r="S18" t="n">
-        <v>27.07561141095893</v>
+        <v>28.53864979391815</v>
       </c>
       <c r="T18" t="n">
-        <v>5.875439642661455</v>
+        <v>6.19292069908165</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09589945009784755</v>
+        <v>0.1010814042287539</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.222062937858909</v>
+        <v>1.288097457166415</v>
       </c>
       <c r="H19" t="n">
-        <v>10.86525048387285</v>
+        <v>11.45235739189777</v>
       </c>
       <c r="I19" t="n">
-        <v>36.75076544033884</v>
+        <v>38.73660353005911</v>
       </c>
       <c r="J19" t="n">
-        <v>86.39984970662486</v>
+        <v>91.06849022166554</v>
       </c>
       <c r="K19" t="n">
-        <v>141.9814940530623</v>
+        <v>149.6535045689707</v>
       </c>
       <c r="L19" t="n">
-        <v>181.6874298704055</v>
+        <v>191.504961949996</v>
       </c>
       <c r="M19" t="n">
-        <v>191.5639203409197</v>
+        <v>201.9151313992772</v>
       </c>
       <c r="N19" t="n">
-        <v>187.0089584816276</v>
+        <v>197.1140408771116</v>
       </c>
       <c r="O19" t="n">
-        <v>172.7330414348211</v>
+        <v>182.0667205820312</v>
       </c>
       <c r="P19" t="n">
-        <v>147.8029575024993</v>
+        <v>155.7895324558362</v>
       </c>
       <c r="Q19" t="n">
-        <v>102.3311065510765</v>
+        <v>107.8605970723623</v>
       </c>
       <c r="R19" t="n">
-        <v>54.94839355136511</v>
+        <v>57.91754566495534</v>
       </c>
       <c r="S19" t="n">
-        <v>21.29722410795934</v>
+        <v>22.44802568534561</v>
       </c>
       <c r="T19" t="n">
-        <v>5.221541643578973</v>
+        <v>5.50368913516559</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06665797842866784</v>
+        <v>0.07025986129998636</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.724379687871846</v>
+        <v>2.871592321138466</v>
       </c>
       <c r="H20" t="n">
-        <v>27.90105347841756</v>
+        <v>29.40869485885932</v>
       </c>
       <c r="I20" t="n">
-        <v>105.0316479166795</v>
+        <v>110.7070629606908</v>
       </c>
       <c r="J20" t="n">
-        <v>231.2283205335134</v>
+        <v>243.7228087662261</v>
       </c>
       <c r="K20" t="n">
-        <v>346.5513127211287</v>
+        <v>365.2773117200174</v>
       </c>
       <c r="L20" t="n">
-        <v>429.9275475938368</v>
+        <v>453.1588052180588</v>
       </c>
       <c r="M20" t="n">
-        <v>478.3772348680278</v>
+        <v>504.226485159105</v>
       </c>
       <c r="N20" t="n">
-        <v>486.1178786561937</v>
+        <v>512.3853968415398</v>
       </c>
       <c r="O20" t="n">
-        <v>459.027328134918</v>
+        <v>483.831000698219</v>
       </c>
       <c r="P20" t="n">
-        <v>391.7692045905817</v>
+        <v>412.9385652701131</v>
       </c>
       <c r="Q20" t="n">
-        <v>294.2023570186711</v>
+        <v>310.0996652693417</v>
       </c>
       <c r="R20" t="n">
-        <v>171.13531556828</v>
+        <v>180.3826611427143</v>
       </c>
       <c r="S20" t="n">
-        <v>62.08180213737977</v>
+        <v>65.43641001794286</v>
       </c>
       <c r="T20" t="n">
-        <v>11.92597208365902</v>
+        <v>12.57039538578364</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2179503750297477</v>
+        <v>0.2297273856910772</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.457671641487282</v>
+        <v>1.536437344277059</v>
       </c>
       <c r="H21" t="n">
-        <v>14.07803927436402</v>
+        <v>14.83875014078107</v>
       </c>
       <c r="I21" t="n">
-        <v>50.1873788845402</v>
+        <v>52.89926821304786</v>
       </c>
       <c r="J21" t="n">
-        <v>137.7180036371822</v>
+        <v>145.1596352327725</v>
       </c>
       <c r="K21" t="n">
-        <v>235.3820036168301</v>
+        <v>248.1009372993354</v>
       </c>
       <c r="L21" t="n">
-        <v>316.5001518062627</v>
+        <v>333.6023277562974</v>
       </c>
       <c r="M21" t="n">
-        <v>369.3407488101766</v>
+        <v>389.2981814863406</v>
       </c>
       <c r="N21" t="n">
-        <v>379.116099423484</v>
+        <v>399.6017459573917</v>
       </c>
       <c r="O21" t="n">
-        <v>346.8171646305289</v>
+        <v>365.5575290131474</v>
       </c>
       <c r="P21" t="n">
-        <v>278.351350557339</v>
+        <v>293.3921451540991</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.0705063765169</v>
+        <v>196.1248792449102</v>
       </c>
       <c r="R21" t="n">
-        <v>90.50350770567532</v>
+        <v>95.39389055081601</v>
       </c>
       <c r="S21" t="n">
-        <v>27.07561141095893</v>
+        <v>28.53864979391815</v>
       </c>
       <c r="T21" t="n">
-        <v>5.875439642661455</v>
+        <v>6.19292069908165</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09589945009784755</v>
+        <v>0.1010814042287539</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.222062937858909</v>
+        <v>1.288097457166415</v>
       </c>
       <c r="H22" t="n">
-        <v>10.86525048387285</v>
+        <v>11.45235739189777</v>
       </c>
       <c r="I22" t="n">
-        <v>36.75076544033884</v>
+        <v>38.73660353005911</v>
       </c>
       <c r="J22" t="n">
-        <v>86.39984970662486</v>
+        <v>91.06849022166554</v>
       </c>
       <c r="K22" t="n">
-        <v>141.9814940530623</v>
+        <v>149.6535045689707</v>
       </c>
       <c r="L22" t="n">
-        <v>181.6874298704055</v>
+        <v>191.504961949996</v>
       </c>
       <c r="M22" t="n">
-        <v>191.5639203409197</v>
+        <v>201.9151313992772</v>
       </c>
       <c r="N22" t="n">
-        <v>187.0089584816276</v>
+        <v>197.1140408771116</v>
       </c>
       <c r="O22" t="n">
-        <v>172.7330414348211</v>
+        <v>182.0667205820312</v>
       </c>
       <c r="P22" t="n">
-        <v>147.8029575024993</v>
+        <v>155.7895324558362</v>
       </c>
       <c r="Q22" t="n">
-        <v>102.3311065510765</v>
+        <v>107.8605970723623</v>
       </c>
       <c r="R22" t="n">
-        <v>54.94839355136511</v>
+        <v>57.91754566495534</v>
       </c>
       <c r="S22" t="n">
-        <v>21.29722410795934</v>
+        <v>22.44802568534561</v>
       </c>
       <c r="T22" t="n">
-        <v>5.221541643578973</v>
+        <v>5.50368913516559</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06665797842866784</v>
+        <v>0.07025986129998636</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>18.75288921105129</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M3" t="n">
         <v>49.79500702712463</v>
@@ -34795,7 +34795,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="P3" t="n">
-        <v>29.03019834022993</v>
+        <v>0.9926419400142784</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34941,19 +34941,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>37.27450692721135</v>
+        <v>16.00233074738662</v>
       </c>
       <c r="M5" t="n">
-        <v>73.46440173672741</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N5" t="n">
-        <v>73.46440173672741</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O5" t="n">
-        <v>61.42357068186735</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="P5" t="n">
-        <v>17.57410067531529</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>62.45040280136672</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M6" t="n">
-        <v>73.46440173672741</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N6" t="n">
-        <v>73.46440173672741</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O6" t="n">
-        <v>38.70753248216018</v>
+        <v>21.75745062690909</v>
       </c>
       <c r="P6" t="n">
-        <v>42.80260953389856</v>
+        <v>29.03019834022993</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>23.38234588573897</v>
+        <v>13.90947242938014</v>
       </c>
       <c r="L8" t="n">
-        <v>66.28237460692793</v>
+        <v>54.53043743554463</v>
       </c>
       <c r="M8" t="n">
-        <v>105.7412437481403</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N8" t="n">
-        <v>112.1126601249237</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O8" t="n">
-        <v>92.39484495920428</v>
+        <v>79.84747424434661</v>
       </c>
       <c r="P8" t="n">
-        <v>44.00736672526762</v>
+        <v>33.29847611381774</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>21.09384010998329</v>
       </c>
       <c r="L9" t="n">
-        <v>83.8051510039169</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M9" t="n">
-        <v>112.1126601249237</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N9" t="n">
-        <v>112.1126601249237</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O9" t="n">
-        <v>101.0627287184343</v>
+        <v>31.36355191321351</v>
       </c>
       <c r="P9" t="n">
-        <v>34.82763607800431</v>
+        <v>53.97475141920032</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35342,7 +35342,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.698987336806027</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K14" t="n">
-        <v>60.38224240788333</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L14" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M14" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N14" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P14" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L15" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M15" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O15" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P15" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M16" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N16" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O16" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>50.18241600682708</v>
+        <v>62.67690423953979</v>
       </c>
       <c r="K17" t="n">
-        <v>126.4614616761481</v>
+        <v>145.1874606750368</v>
       </c>
       <c r="L17" t="n">
-        <v>194.1611326238496</v>
+        <v>217.3923902480716</v>
       </c>
       <c r="M17" t="n">
-        <v>248.031001640755</v>
+        <v>273.8802519318323</v>
       </c>
       <c r="N17" t="n">
-        <v>256.7048150596028</v>
+        <v>282.9723332449489</v>
       </c>
       <c r="O17" t="n">
-        <v>228.9291167132313</v>
+        <v>253.7327892765323</v>
       </c>
       <c r="P17" t="n">
-        <v>160.5362088353122</v>
+        <v>181.7055695148436</v>
       </c>
       <c r="Q17" t="n">
-        <v>71.8966671442216</v>
+        <v>87.79397539489221</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>10.88037697051553</v>
+        <v>18.32200856610578</v>
       </c>
       <c r="K18" t="n">
-        <v>97.54056464247114</v>
+        <v>110.2594983249764</v>
       </c>
       <c r="L18" t="n">
-        <v>177.9457720263886</v>
+        <v>195.0479479764232</v>
       </c>
       <c r="M18" t="n">
-        <v>227.2067148881583</v>
+        <v>247.1641475643223</v>
       </c>
       <c r="N18" t="n">
-        <v>247.7743873401507</v>
+        <v>268.2600338740584</v>
       </c>
       <c r="O18" t="n">
-        <v>204.2209201860845</v>
+        <v>222.9612845687029</v>
       </c>
       <c r="P18" t="n">
-        <v>144.3769431430088</v>
+        <v>159.4177377397688</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.08873229049541</v>
+        <v>56.14310515888866</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>12.96823588252693</v>
+        <v>20.64024639843535</v>
       </c>
       <c r="L19" t="n">
-        <v>46.8027535891672</v>
+        <v>56.62028566875767</v>
       </c>
       <c r="M19" t="n">
-        <v>52.63813639331465</v>
+        <v>62.98934745167216</v>
       </c>
       <c r="N19" t="n">
-        <v>59.32341401639437</v>
+        <v>69.42849641187846</v>
       </c>
       <c r="O19" t="n">
-        <v>34.27650298297834</v>
+        <v>43.61018213018838</v>
       </c>
       <c r="P19" t="n">
-        <v>10.07495345335167</v>
+        <v>18.06152840668858</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>50.18241600682708</v>
+        <v>62.67690423953979</v>
       </c>
       <c r="K20" t="n">
-        <v>126.4614616761481</v>
+        <v>145.1874606750368</v>
       </c>
       <c r="L20" t="n">
-        <v>194.1611326238496</v>
+        <v>217.3923902480716</v>
       </c>
       <c r="M20" t="n">
-        <v>248.031001640755</v>
+        <v>273.8802519318323</v>
       </c>
       <c r="N20" t="n">
-        <v>256.7048150596028</v>
+        <v>282.9723332449489</v>
       </c>
       <c r="O20" t="n">
-        <v>228.9291167132313</v>
+        <v>253.7327892765323</v>
       </c>
       <c r="P20" t="n">
-        <v>160.5362088353122</v>
+        <v>181.7055695148436</v>
       </c>
       <c r="Q20" t="n">
-        <v>71.8966671442216</v>
+        <v>87.79397539489221</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>10.88037697051553</v>
+        <v>18.32200856610578</v>
       </c>
       <c r="K21" t="n">
-        <v>97.54056464247114</v>
+        <v>110.2594983249764</v>
       </c>
       <c r="L21" t="n">
-        <v>177.9457720263886</v>
+        <v>195.0479479764232</v>
       </c>
       <c r="M21" t="n">
-        <v>227.2067148881583</v>
+        <v>247.1641475643223</v>
       </c>
       <c r="N21" t="n">
-        <v>247.7743873401507</v>
+        <v>268.2600338740584</v>
       </c>
       <c r="O21" t="n">
-        <v>204.2209201860845</v>
+        <v>222.9612845687029</v>
       </c>
       <c r="P21" t="n">
-        <v>144.3769431430088</v>
+        <v>159.4177377397688</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.08873229049541</v>
+        <v>56.14310515888866</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>12.96823588252693</v>
+        <v>20.64024639843535</v>
       </c>
       <c r="L22" t="n">
-        <v>46.8027535891672</v>
+        <v>56.62028566875767</v>
       </c>
       <c r="M22" t="n">
-        <v>52.63813639331465</v>
+        <v>62.98934745167216</v>
       </c>
       <c r="N22" t="n">
-        <v>59.32341401639437</v>
+        <v>69.42849641187846</v>
       </c>
       <c r="O22" t="n">
-        <v>34.27650298297834</v>
+        <v>43.61018213018838</v>
       </c>
       <c r="P22" t="n">
-        <v>10.07495345335167</v>
+        <v>18.06152840668858</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
